--- a/tables/graphics.xlsx
+++ b/tables/graphics.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="691">
   <si>
     <t>Literatur</t>
   </si>
@@ -526,15 +526,15 @@
     <t>3</t>
   </si>
   <si>
+    <t>k</t>
+  </si>
+  <si>
     <t>9)</t>
   </si>
   <si>
     <t>Zugriff</t>
   </si>
   <si>
-    <t>kkkjjjk</t>
-  </si>
-  <si>
     <t>online</t>
   </si>
   <si>
@@ -547,6 +547,9 @@
     <t xml:space="preserve">on- und offline</t>
   </si>
   <si>
+    <t>i</t>
+  </si>
+  <si>
     <t xml:space="preserve">0 Total</t>
   </si>
   <si>
@@ -568,7 +571,10 @@
     <t>kostenlos</t>
   </si>
   <si>
-    <t xml:space="preserve">nicht kostenlos</t>
+    <t>kostenpflichtig</t>
+  </si>
+  <si>
+    <t>k.A.</t>
   </si>
   <si>
     <t>11)</t>
@@ -577,10 +583,10 @@
     <t>Dokumentation</t>
   </si>
   <si>
-    <t xml:space="preserve">Dokumentation vorhanden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keine Dokumentation</t>
+    <t>vorhanden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nicht dokumentiert</t>
   </si>
   <si>
     <t>Zitationen</t>
@@ -649,60 +655,120 @@
     <t xml:space="preserve">V. Giannou, B. Mamalis</t>
   </si>
   <si>
+    <t xml:space="preserve">Flexible Web-Based Educational System form Teaching Computer Architecture and Organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J. Djordjevic, B. Nikolic, A. Milenkovic</t>
+  </si>
+  <si>
     <t xml:space="preserve">Practical Computer Architecture with Python and ARM: An introductory guide for enthusiasts and students to learn how computers work and program their own</t>
   </si>
   <si>
     <t xml:space="preserve">A. Clements</t>
   </si>
   <si>
+    <t xml:space="preserve">Harnessing FPGAs for computer architecture education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Holland, J. Harris, S. Hauck</t>
+  </si>
+  <si>
     <t xml:space="preserve">Visualization with Experiential Learning to Encourage Participation and Research in Computer Architecture</t>
   </si>
   <si>
     <t xml:space="preserve">T. Y. Yeh, M. Sterner, C. Bell, A. Chalize Cowe</t>
   </si>
   <si>
+    <t xml:space="preserve">Using Simulators for Teaching Computer Organization And Architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. W. C. Prasad, A. Alsadoon, A. Beg, A. Chan </t>
+  </si>
+  <si>
     <t xml:space="preserve">Basic Concepts of Computer Architecture Through Games and Game Development</t>
   </si>
   <si>
     <t xml:space="preserve">E. Larraza-Mendiluze, O. A. Gallego, O. A. Uriarte, J. I. M. Aramburu, J. F. L. Mugika</t>
   </si>
   <si>
+    <t xml:space="preserve">MarieSim: The MARIE Computer Simulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L. Null, J. Lobur</t>
+  </si>
+  <si>
     <t xml:space="preserve">CADSS: Computer Architecture Design Simulator for Students</t>
   </si>
   <si>
     <t xml:space="preserve">B. P. Railing</t>
   </si>
   <si>
+    <t xml:space="preserve">Control Flow Modeling in Statistical Simulation for Accurate and Efficient Processor Design Studies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L. Eeckhout, R. H. Bell, B. Stougie, K. De Bosschere, L. K. John</t>
+  </si>
+  <si>
     <t xml:space="preserve">Simulator Building as a Problem-Based Learning Approach for Teaching Students in a Computer Architecture Course</t>
   </si>
   <si>
     <t xml:space="preserve">L. Ang, K. P. Kah</t>
   </si>
   <si>
+    <t xml:space="preserve">Applying a Constructivist and Collaborative Methodological Approach in Engineering Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L. Moreno, C. Gonzalez, I. Castilla, E. Gonzalez, J. Sigue</t>
+  </si>
+  <si>
     <t xml:space="preserve">A study of the effectiveness of computer-based simulations in teaching computer architecture</t>
   </si>
   <si>
     <t xml:space="preserve">A. M. DeNardo, A. S. Pyzdrowski</t>
   </si>
   <si>
+    <t xml:space="preserve">Measuring Experimental Error in Microprocessor simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R. Desikan, D. Burger, S. W. Keckler</t>
+  </si>
+  <si>
     <t xml:space="preserve">A Web-based Visual Simulator with Communication Support and its Application to Computer Architecture Education</t>
   </si>
   <si>
     <t xml:space="preserve">Y. Imai, K. Kaneko, M. Nakagawa</t>
   </si>
   <si>
+    <t xml:space="preserve">Cryogenic Computer Architecture Modeling with Memory-Side Case Studies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L. Gyu-Hyeon, M. Dongmoon, B. Ilkwon, K. Jangwoo</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Educational Range of Vital Simulations of the Little Man Computer Architecture Paradigm</t>
   </si>
   <si>
     <t xml:space="preserve">H. Osborne, W. Yurcik</t>
   </si>
   <si>
+    <t xml:space="preserve">A Simulation Based Study of TLB Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Borg, J. B. Chen, N. P. Jouppi</t>
+  </si>
+  <si>
     <t xml:space="preserve">T\&amp;D-Bench-Innovative Combined Support for Education and Research in Computer Architecture and Embedded Systems</t>
   </si>
   <si>
     <t xml:space="preserve">S. N. Soares, F. R. Wagner</t>
   </si>
   <si>
+    <t xml:space="preserve">Virtual Reality in Computer Science Education: A Systematic Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J. Priker, A. Dengel, M. Holly, S. Safikani</t>
+  </si>
+  <si>
     <t xml:space="preserve">YASS: A System Simulator for Operationg System and Computer Architecture Teaching and Learning</t>
   </si>
   <si>
@@ -721,12 +787,6 @@
     <t xml:space="preserve">J. Klein, I. Boybat, Y. M. Qureshi, M. Dazzi, A. Levisse, G. Ansaloni</t>
   </si>
   <si>
-    <t xml:space="preserve">Flexible Web-Based Educational System form Teaching Computer Architecture and Organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J. Djordjevic, B. Nikolic, A. Milenkovic</t>
-  </si>
-  <si>
     <t xml:space="preserve">An Emphasis on Memory and Processor Interactions in Undergraduate Computer Architecture Education</t>
   </si>
   <si>
@@ -811,12 +871,6 @@
     <t xml:space="preserve">S. Rigo, M. Juliato, R. Azevedo, G. Araujo, P. Centoducatto</t>
   </si>
   <si>
-    <t xml:space="preserve">Harnessing FPGAs for computer architecture education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M. Holland, J. Harris, S. Hauck</t>
-  </si>
-  <si>
     <t xml:space="preserve">Looking into the Black Box: Monitoring Computer Architecture Simulations in Real-Time with AkitaRTM</t>
   </si>
   <si>
@@ -892,18 +946,6 @@
     <t xml:space="preserve">W. Yurcik, J. Vila, L. Brumbaugh</t>
   </si>
   <si>
-    <t xml:space="preserve">Using Simulators for Teaching Computer Organization And Architecture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P. W. C. Prasad, A. Alsadoon, A. Beg, A. Chan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MarieSim: The MARIE Computer Simulator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L. Null, J. Lobur</t>
-  </si>
-  <si>
     <t xml:space="preserve">A Multi-Level Computer Architecture Simulator</t>
   </si>
   <si>
@@ -1300,9 +1342,6 @@
     <t xml:space="preserve">Use of Constructivism and Collaborative Teaching in an ILP Processors Course</t>
   </si>
   <si>
-    <t xml:space="preserve">L. Moreno, C. Gonzalez, I. Castilla, E. Gonzalez, J. Sigue</t>
-  </si>
-  <si>
     <t xml:space="preserve">CPU Sim 3.1: A Tool for Simulating Computer Architectures for Computer Organization Classes</t>
   </si>
   <si>
@@ -1321,21 +1360,6 @@
     <t xml:space="preserve">C. Yehezkel, W. Yurcik, M. Pearson, D. Armstrong</t>
   </si>
   <si>
-    <t xml:space="preserve">Control Flow Modeling in Statistical Simulation for Accurate and Efficient Processor Design Studies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L. Eeckhout, R. H. Bell, B. Stougie, K. De Bosschere, L. K. John</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Applying a Constructivist and Collaborative Methodological Approach in Engineering Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measuring Experimental Error in Microprocessor simulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R. Desikan, D. Burger, S. W. Keckler</t>
-  </si>
-  <si>
     <t xml:space="preserve">DRAMPower 5: An Open-Source Power Simulator for Current Generation DRAM Standards</t>
   </si>
   <si>
@@ -1426,18 +1450,6 @@
     <t xml:space="preserve">L. M. N. Coutinho, J. L. D. Mendes, C. A. P. S. Martins</t>
   </si>
   <si>
-    <t xml:space="preserve">Cryogenic Computer Architecture Modeling with Memory-Side Case Studies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L. Gyu-Hyeon, M. Dongmoon, B. Ilkwon, K. Jangwoo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Simulation Based Study of TLB Performance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A. Borg, J. B. Chen, N. P. Jouppi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Construction and Research of IT Education Platform Based on Virtual Simulation Technology</t>
   </si>
   <si>
@@ -1478,12 +1490,6 @@
   </si>
   <si>
     <t xml:space="preserve">G. P. Silva, J. A. dos S. Borges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virtual Reality in Computer Science Education: A Systematic Review</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J. Priker, A. Dengel, M. Holly, S. Safikani</t>
   </si>
   <si>
     <t>Id</t>
@@ -2581,8 +2587,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm rot="0" flipH="0" flipV="0">
-      <a:off x="4889235" y="723370"/>
-      <a:ext cx="4820972" cy="2975504"/>
+      <a:off x="4904353" y="898751"/>
+      <a:ext cx="4848942" cy="2927122"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -3045,8 +3051,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="5621788" y="65668071"/>
-      <a:ext cx="4131507" cy="3041876"/>
+      <a:off x="5621788" y="76635428"/>
+      <a:ext cx="4131507" cy="3572554"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -3553,8 +3559,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm rot="0" flipH="0" flipV="0">
-      <a:off x="6243636" y="70380224"/>
-      <a:ext cx="4052887" cy="2762250"/>
+      <a:off x="6265407" y="82166050"/>
+      <a:ext cx="4070577" cy="2950029"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -4184,8 +4190,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm rot="0" flipH="0" flipV="0">
-      <a:off x="3738561" y="84100986"/>
-      <a:ext cx="4005262" cy="2633662"/>
+      <a:off x="4110036" y="97211467"/>
+      <a:ext cx="4022952" cy="3351440"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -4586,8 +4592,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm rot="0" flipH="0" flipV="0">
-      <a:off x="4972388" y="88160678"/>
-      <a:ext cx="5790861" cy="2857500"/>
+      <a:off x="4611628" y="101563714"/>
+      <a:ext cx="5613968" cy="4299856"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -5030,8 +5036,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm rot="0" flipH="0" flipV="0">
-      <a:off x="5148261" y="92630623"/>
-      <a:ext cx="4102893" cy="2286000"/>
+      <a:off x="5165949" y="107580790"/>
+      <a:ext cx="4119222" cy="2294845"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -5432,8 +5438,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm rot="0" flipH="0" flipV="0">
-      <a:off x="6019798" y="104087838"/>
-      <a:ext cx="3341915" cy="3190875"/>
+      <a:off x="6570547" y="116844535"/>
+      <a:ext cx="5668736" cy="4340678"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -5896,8 +5902,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm rot="0" flipH="0" flipV="0">
-      <a:off x="4435530" y="5670889"/>
-      <a:ext cx="6572647" cy="3513931"/>
+      <a:off x="4449138" y="5847782"/>
+      <a:ext cx="6586254" cy="3867716"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -6235,8 +6241,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm rot="0" flipH="0" flipV="0">
-      <a:off x="4862512" y="16521112"/>
-      <a:ext cx="4552949" cy="2724149"/>
+      <a:off x="5213576" y="17468848"/>
+      <a:ext cx="4410073" cy="3265714"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -6679,8 +6685,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm rot="0" flipH="0" flipV="0">
-      <a:off x="6929437" y="21045487"/>
-      <a:ext cx="4552949" cy="2724149"/>
+      <a:off x="6265408" y="22718484"/>
+      <a:ext cx="4573360" cy="3088140"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -7088,8 +7094,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm rot="0" flipH="0" flipV="0">
-      <a:off x="6958012" y="31213424"/>
-      <a:ext cx="4552949" cy="2724149"/>
+      <a:off x="6608308" y="34341024"/>
+      <a:ext cx="4573359" cy="3088141"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -7497,8 +7503,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm rot="0" flipH="0" flipV="0">
-      <a:off x="5614987" y="34504312"/>
-      <a:ext cx="4552949" cy="2724149"/>
+      <a:off x="6408283" y="37997945"/>
+      <a:ext cx="4573360" cy="4150177"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -7934,8 +7940,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm rot="0" flipH="0" flipV="0">
-      <a:off x="5905499" y="43595924"/>
-      <a:ext cx="4552949" cy="2724149"/>
+      <a:off x="5408838" y="50839686"/>
+      <a:ext cx="4410073" cy="3441926"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -8674,8 +8680,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm rot="0" flipH="0" flipV="0">
-      <a:off x="5062536" y="49796698"/>
-      <a:ext cx="2967037" cy="1524000"/>
+      <a:off x="5080224" y="58479415"/>
+      <a:ext cx="2980644" cy="1530124"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -9446,8 +9452,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm rot="0" flipH="0" flipV="0">
-      <a:off x="4542837" y="58537928"/>
-      <a:ext cx="6450958" cy="2718705"/>
+      <a:off x="4542837" y="67028785"/>
+      <a:ext cx="6450958" cy="3249384"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -10077,8 +10083,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm rot="0" flipH="0" flipV="0">
-      <a:off x="5410199" y="63017399"/>
-      <a:ext cx="4257675" cy="2162175"/>
+      <a:off x="5427888" y="73166285"/>
+      <a:ext cx="4276724" cy="3231697"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -19378,13 +19384,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>931068</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>391582</xdr:colOff>
+      <xdr:colOff>391581</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>111124</xdr:rowOff>
+      <xdr:rowOff>111123</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19394,8 +19400,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm rot="0" flipH="0" flipV="0">
-        <a:off x="4889235" y="723370"/>
-        <a:ext cx="4820972" cy="2975504"/>
+        <a:off x="4904353" y="898751"/>
+        <a:ext cx="4848942" cy="2927122"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19408,15 +19414,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>233362</xdr:colOff>
+      <xdr:colOff>233361</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:rowOff>133348</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>261936</xdr:colOff>
+      <xdr:colOff>261935</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>38098</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19426,8 +19432,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm rot="0" flipH="0" flipV="0">
-        <a:off x="4862512" y="16521112"/>
-        <a:ext cx="4552949" cy="2724149"/>
+        <a:off x="5213576" y="17468848"/>
+        <a:ext cx="4410073" cy="3265714"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19440,15 +19446,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>223837</xdr:colOff>
+      <xdr:colOff>223836</xdr:colOff>
       <xdr:row>150</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:rowOff>76198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>252412</xdr:colOff>
+      <xdr:colOff>252411</xdr:colOff>
       <xdr:row>165</xdr:row>
-      <xdr:rowOff>157161</xdr:rowOff>
+      <xdr:rowOff>157160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19458,8 +19464,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm rot="0" flipH="0" flipV="0">
-        <a:off x="6929437" y="21045487"/>
-        <a:ext cx="4552949" cy="2724149"/>
+        <a:off x="6265408" y="22718484"/>
+        <a:ext cx="4573360" cy="3088140"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19472,15 +19478,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>566737</xdr:colOff>
+      <xdr:colOff>566736</xdr:colOff>
       <xdr:row>208</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
+      <xdr:rowOff>23810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>595311</xdr:colOff>
+      <xdr:colOff>595310</xdr:colOff>
       <xdr:row>223</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:rowOff>104773</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19490,8 +19496,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm rot="0" flipH="0" flipV="0">
-        <a:off x="6958012" y="31213424"/>
-        <a:ext cx="4552949" cy="2724149"/>
+        <a:off x="6608308" y="34341024"/>
+        <a:ext cx="4573359" cy="3088141"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19504,15 +19510,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>366712</xdr:colOff>
+      <xdr:colOff>366711</xdr:colOff>
       <xdr:row>226</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>142873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>395287</xdr:colOff>
+      <xdr:colOff>395286</xdr:colOff>
       <xdr:row>242</xdr:row>
-      <xdr:rowOff>47623</xdr:rowOff>
+      <xdr:rowOff>47622</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19522,8 +19528,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm rot="0" flipH="0" flipV="0">
-        <a:off x="5614987" y="34504312"/>
-        <a:ext cx="4552949" cy="2724149"/>
+        <a:off x="6408283" y="37997945"/>
+        <a:ext cx="4573360" cy="4150177"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19536,15 +19542,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
+      <xdr:colOff>428623</xdr:colOff>
       <xdr:row>278</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>71436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>457198</xdr:colOff>
+      <xdr:colOff>457197</xdr:colOff>
       <xdr:row>293</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:rowOff>152398</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19554,8 +19560,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm rot="0" flipH="0" flipV="0">
-        <a:off x="5905499" y="43595924"/>
-        <a:ext cx="4552949" cy="2724149"/>
+        <a:off x="5408838" y="50839686"/>
+        <a:ext cx="4410073" cy="3441926"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19570,11 +19576,11 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>100010</xdr:colOff>
       <xdr:row>313</xdr:row>
-      <xdr:rowOff>104773</xdr:rowOff>
+      <xdr:rowOff>104772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
+      <xdr:colOff>209548</xdr:colOff>
       <xdr:row>322</xdr:row>
       <xdr:rowOff>42861</xdr:rowOff>
     </xdr:to>
@@ -19586,8 +19592,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm rot="0" flipH="0" flipV="0">
-        <a:off x="5062536" y="49796698"/>
-        <a:ext cx="2967037" cy="1524000"/>
+        <a:off x="5080224" y="58479415"/>
+        <a:ext cx="2980644" cy="1530124"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19618,8 +19624,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm rot="0" flipH="0" flipV="0">
-        <a:off x="4542837" y="58537928"/>
-        <a:ext cx="6450958" cy="2718705"/>
+        <a:off x="4542837" y="67028785"/>
+        <a:ext cx="6450958" cy="3249384"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19632,13 +19638,13 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>447674</xdr:colOff>
+      <xdr:colOff>447673</xdr:colOff>
       <xdr:row>388</xdr:row>
-      <xdr:rowOff>109536</xdr:rowOff>
+      <xdr:rowOff>109535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
+      <xdr:colOff>342898</xdr:colOff>
       <xdr:row>400</xdr:row>
       <xdr:rowOff>157161</xdr:rowOff>
     </xdr:to>
@@ -19650,8 +19656,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm rot="0" flipH="0" flipV="0">
-        <a:off x="5410199" y="63017399"/>
-        <a:ext cx="4257675" cy="2162175"/>
+        <a:off x="5427888" y="73166285"/>
+        <a:ext cx="4276724" cy="3231697"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19682,8 +19688,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5621788" y="65668071"/>
-        <a:ext cx="4131507" cy="3041876"/>
+        <a:off x="5621788" y="76635428"/>
+        <a:ext cx="4131507" cy="3572554"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19696,15 +19702,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>223836</xdr:colOff>
+      <xdr:colOff>223835</xdr:colOff>
       <xdr:row>428</xdr:row>
-      <xdr:rowOff>128586</xdr:rowOff>
+      <xdr:rowOff>128585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>361948</xdr:colOff>
       <xdr:row>444</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>71436</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19714,8 +19720,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm rot="0" flipH="0" flipV="0">
-        <a:off x="6243636" y="70380224"/>
-        <a:ext cx="4052887" cy="2762250"/>
+        <a:off x="6265407" y="82166050"/>
+        <a:ext cx="4070577" cy="2950029"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19727,15 +19733,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>833436</xdr:colOff>
-      <xdr:row>503</xdr:row>
-      <xdr:rowOff>42861</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>136750</xdr:colOff>
+      <xdr:row>502</xdr:row>
+      <xdr:rowOff>42860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1114423</xdr:colOff>
-      <xdr:row>518</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>281667</xdr:colOff>
+      <xdr:row>517</xdr:row>
       <xdr:rowOff>33336</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -19746,8 +19752,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm rot="0" flipH="0" flipV="0">
-        <a:off x="3738561" y="84100986"/>
-        <a:ext cx="4005262" cy="2633662"/>
+        <a:off x="4110036" y="97211467"/>
+        <a:ext cx="4022952" cy="3351440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19760,15 +19766,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>999102</xdr:colOff>
-      <xdr:row>524</xdr:row>
-      <xdr:rowOff>13606</xdr:rowOff>
+      <xdr:colOff>638343</xdr:colOff>
+      <xdr:row>521</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>176892</xdr:colOff>
-      <xdr:row>540</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>251561</xdr:colOff>
+      <xdr:row>541</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19778,8 +19784,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm rot="0" flipH="0" flipV="0">
-        <a:off x="4972388" y="88160678"/>
-        <a:ext cx="5790861" cy="2857500"/>
+        <a:off x="4611628" y="101563714"/>
+        <a:ext cx="5613968" cy="4299856"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19792,15 +19798,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>185736</xdr:colOff>
+      <xdr:colOff>185735</xdr:colOff>
       <xdr:row>550</xdr:row>
-      <xdr:rowOff>152398</xdr:rowOff>
+      <xdr:rowOff>152397</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>535780</xdr:colOff>
+      <xdr:colOff>535779</xdr:colOff>
       <xdr:row>563</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:rowOff>147636</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19810,8 +19816,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm rot="0" flipH="0" flipV="0">
-        <a:off x="5148261" y="92630623"/>
-        <a:ext cx="4102893" cy="2286000"/>
+        <a:off x="5165949" y="107580790"/>
+        <a:ext cx="4119222" cy="2294845"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19823,16 +19829,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>590548</xdr:colOff>
-      <xdr:row>613</xdr:row>
-      <xdr:rowOff>47623</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>528976</xdr:colOff>
+      <xdr:row>603</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>612321</xdr:colOff>
-      <xdr:row>629</xdr:row>
-      <xdr:rowOff>108856</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>428284</xdr:colOff>
+      <xdr:row>623</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -19842,8 +19848,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm rot="0" flipH="0" flipV="0">
-        <a:off x="6019798" y="104087838"/>
-        <a:ext cx="3341915" cy="3190875"/>
+        <a:off x="6570547" y="116844535"/>
+        <a:ext cx="5668736" cy="4340678"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -19874,8 +19880,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm rot="0" flipH="0" flipV="0">
-        <a:off x="4435530" y="5670889"/>
-        <a:ext cx="6572647" cy="3513931"/>
+        <a:off x="4449138" y="5847782"/>
+        <a:ext cx="6586254" cy="3867716"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -32684,7 +32690,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A220" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A620" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -37512,7 +37518,11 @@
         <v>151</v>
       </c>
     </row>
-    <row r="377" ht="14.25"/>
+    <row r="377" ht="14.25">
+      <c r="W377" t="s">
+        <v>164</v>
+      </c>
+    </row>
     <row r="378" ht="14.25"/>
     <row r="379" ht="14.25">
       <c r="D379" t="s">
@@ -37884,10 +37894,10 @@
     <row r="401" ht="14.25"/>
     <row r="402" ht="14.25">
       <c r="C402" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D402" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="403" ht="14.25">
@@ -37908,9 +37918,6 @@
       <c r="F404" s="6">
         <f t="shared" ref="F404:F407" si="37">E404/$E$408</f>
         <v>0.10596026490066225</v>
-      </c>
-      <c r="AB404" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="405" ht="14.25">
@@ -38014,7 +38021,7 @@
     <row r="415" ht="14.25"/>
     <row r="416" ht="14.25">
       <c r="D416" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E416" t="s">
         <v>2</v>
@@ -38090,6 +38097,9 @@
         <v>1</v>
       </c>
       <c r="H423" s="6"/>
+      <c r="K423" t="s">
+        <v>171</v>
+      </c>
       <c r="L423" s="23" t="s">
         <v>167</v>
       </c>
@@ -38230,7 +38240,7 @@
     </row>
     <row r="430" ht="14.25">
       <c r="D430" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F430">
         <v>16</v>
@@ -38558,7 +38568,7 @@
     </row>
     <row r="463" ht="14.25">
       <c r="D463" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F463">
         <v>99</v>
@@ -38712,7 +38722,7 @@
     </row>
     <row r="477" ht="14.25">
       <c r="D477" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F477">
         <v>19</v>
@@ -38850,7 +38860,7 @@
     </row>
     <row r="490" ht="14.25">
       <c r="D490" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F490">
         <v>17</v>
@@ -39301,10 +39311,10 @@
     </row>
     <row r="528" ht="14.25">
       <c r="C528" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D528" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="529" ht="14.25">
@@ -39362,7 +39372,7 @@
     <row r="534" ht="14.25"/>
     <row r="535" ht="14.25">
       <c r="D535" s="23" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E535">
         <f t="shared" ref="E535:E537" si="41">E530</f>
@@ -39375,7 +39385,7 @@
     </row>
     <row r="536" ht="14.25">
       <c r="D536" s="23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E536">
         <f t="shared" si="41"/>
@@ -39388,7 +39398,7 @@
     </row>
     <row r="537" ht="14.25">
       <c r="D537" s="23" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="E537">
         <f t="shared" si="41"/>
@@ -39452,13 +39462,13 @@
         <v>4</v>
       </c>
       <c r="J545" s="23" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K545" s="23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L545" s="23" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="546" ht="14.25">
@@ -40046,10 +40056,10 @@
     </row>
     <row r="610" ht="14.25">
       <c r="C610" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D610" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="612" ht="14.25">
@@ -40095,7 +40105,7 @@
     <row r="617" ht="14.25"/>
     <row r="618" ht="14.25">
       <c r="D618" s="23" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E618">
         <f>132</f>
@@ -40106,9 +40116,9 @@
         <v>0.8741721854304636</v>
       </c>
     </row>
-    <row r="619" ht="14.25">
+    <row r="619" ht="25.5">
       <c r="D619" s="23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E619">
         <v>8</v>
@@ -40120,7 +40130,7 @@
     </row>
     <row r="620" ht="14.25">
       <c r="D620" s="23" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="E620">
         <v>11</v>
@@ -40137,28 +40147,28 @@
         <v>12</v>
       </c>
       <c r="D623" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="624" ht="14.25"/>
-    <row r="625" ht="14.25">
+    <row r="625" ht="14.25" customHeight="1">
       <c r="D625" t="s">
         <v>115</v>
       </c>
       <c r="E625" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F625" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G625" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H625" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="626" ht="14.25">
+    <row r="626" ht="14.25" customHeight="1">
       <c r="D626" t="s">
         <v>116</v>
       </c>
@@ -40166,65 +40176,65 @@
         <v>0</v>
       </c>
       <c r="F626" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G626" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H626">
         <v>2025</v>
       </c>
       <c r="K626" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L626" s="25">
         <f>AVERAGE(E626:E776)</f>
         <v>35.271739130434781</v>
       </c>
     </row>
-    <row r="627" ht="14.25">
+    <row r="627" ht="14.25" customHeight="1">
       <c r="E627">
         <v>1</v>
       </c>
       <c r="F627" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G627" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H627">
         <v>2024</v>
       </c>
     </row>
-    <row r="628" ht="14.25">
+    <row r="628" ht="14.25" customHeight="1">
       <c r="E628">
         <v>5</v>
       </c>
       <c r="F628" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G628" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H628">
         <v>2024</v>
       </c>
     </row>
-    <row r="629" ht="14.25">
+    <row r="629" ht="14.25" customHeight="1">
       <c r="E629" s="10">
         <v>211</v>
       </c>
       <c r="F629" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G629" s="10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H629" s="10">
         <v>2024</v>
       </c>
     </row>
-    <row r="630" ht="14.25">
+    <row r="630" ht="14.25" customHeight="1">
       <c r="D630" t="s">
         <v>117</v>
       </c>
@@ -40232,58 +40242,118 @@
         <v>7</v>
       </c>
       <c r="F630" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G630" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H630">
         <v>2024</v>
       </c>
-    </row>
-    <row r="631" ht="14.25">
+      <c r="K630" t="s">
+        <v>114</v>
+      </c>
+      <c r="L630" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="M630" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="N630" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="O630" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="631" ht="14.25" customHeight="1">
       <c r="E631">
         <v>27</v>
       </c>
       <c r="F631" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G631" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H631">
         <v>2023</v>
       </c>
-    </row>
-    <row r="632" ht="14.25">
+      <c r="K631" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="L631" s="10">
+        <v>211</v>
+      </c>
+      <c r="M631" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="N631" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="O631" s="10">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="632" ht="14.25" customHeight="1">
       <c r="E632" s="10">
         <v>146</v>
       </c>
       <c r="F632" s="10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G632" s="10" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H632" s="10">
         <v>2019</v>
       </c>
-    </row>
-    <row r="633" ht="14.25">
+      <c r="K632" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L632" s="10">
+        <v>146</v>
+      </c>
+      <c r="M632" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="N632" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="O632" s="10">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="633" ht="14.25" customHeight="1">
       <c r="E633" s="10">
         <v>397</v>
       </c>
       <c r="F633" s="10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G633" s="10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H633" s="10">
         <v>2020</v>
       </c>
-    </row>
-    <row r="634" ht="14.25">
+      <c r="K633" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L633" s="10">
+        <v>397</v>
+      </c>
+      <c r="M633" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="N633" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="O633" s="10">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="634" ht="14.25" customHeight="1">
       <c r="D634" t="s">
         <v>118</v>
       </c>
@@ -40291,186 +40361,336 @@
         <v>0</v>
       </c>
       <c r="F634" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G634" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H634">
         <v>2023</v>
       </c>
-    </row>
-    <row r="635" ht="14.25">
+      <c r="K634" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="L634" s="10">
+        <v>117</v>
+      </c>
+      <c r="M634" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="N634" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="O634" s="10">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="635" ht="14.25" customHeight="1">
       <c r="F635" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G635" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H635">
         <v>2023</v>
       </c>
-    </row>
-    <row r="636" ht="14.25">
+      <c r="K635" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="L635" s="10">
+        <v>46</v>
+      </c>
+      <c r="M635" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="N635" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="O635" s="10">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="636" ht="14.25" customHeight="1">
       <c r="F636" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G636" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H636">
         <v>2024</v>
       </c>
-    </row>
-    <row r="637" ht="14.25">
+      <c r="K636" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L636" s="10">
+        <v>41</v>
+      </c>
+      <c r="M636" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="N636" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="O636" s="10">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="637" ht="14.25" customHeight="1">
       <c r="E637">
         <v>1</v>
       </c>
       <c r="F637" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="G637" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="H637">
         <v>2024</v>
       </c>
-    </row>
-    <row r="638" ht="14.25">
+      <c r="K637" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L637" s="10">
+        <v>51</v>
+      </c>
+      <c r="M637" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="N637" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="O637" s="10">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="638" ht="14.25" customHeight="1">
       <c r="F638" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="G638" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="H638">
         <v>2024</v>
       </c>
-    </row>
-    <row r="639" ht="14.25">
+      <c r="K638" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L638" s="10">
+        <v>162</v>
+      </c>
+      <c r="M638" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="N638" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="O638" s="10">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="639" ht="14.25" customHeight="1">
       <c r="F639" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="G639" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="H639">
         <v>2008</v>
       </c>
-    </row>
-    <row r="640" ht="14.25">
+      <c r="K639" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L639" s="10">
+        <v>172</v>
+      </c>
+      <c r="M639" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="N639" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="O639" s="10">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="640" ht="14.25" customHeight="1">
       <c r="E640">
         <v>5</v>
       </c>
       <c r="F640" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="G640" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="H640">
         <v>2020</v>
       </c>
-    </row>
-    <row r="641" ht="14.25">
+      <c r="K640" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L640" s="10">
+        <v>327</v>
+      </c>
+      <c r="M640" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="N640" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="O640" s="10">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="641" ht="14.25" customHeight="1">
       <c r="E641">
         <v>6</v>
       </c>
       <c r="F641" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="G641" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="H641">
         <v>2007</v>
       </c>
-    </row>
-    <row r="642" ht="14.25">
+      <c r="K641" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L641" s="10">
+        <v>53</v>
+      </c>
+      <c r="M641" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="N641" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="O641" s="10">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="642" ht="14.25" customHeight="1">
       <c r="E642">
         <v>11</v>
       </c>
       <c r="F642" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="G642" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="H642">
         <v>2002</v>
       </c>
-    </row>
-    <row r="643" ht="14.25">
+      <c r="K642" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L642" s="10">
+        <v>205</v>
+      </c>
+      <c r="M642" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="N642" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="O642" s="10">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="643" ht="14.25" customHeight="1">
       <c r="E643">
         <v>15</v>
       </c>
       <c r="F643" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="G643" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="H643">
         <v>2011</v>
       </c>
-    </row>
-    <row r="644" ht="14.25">
+      <c r="K643" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="L643" s="10">
+        <v>139</v>
+      </c>
+      <c r="M643" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="N643" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="O643" s="10">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="644" ht="14.25" customHeight="1">
       <c r="E644">
         <v>16</v>
       </c>
       <c r="F644" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="G644" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="H644">
         <v>2013</v>
       </c>
     </row>
-    <row r="645" ht="14.25">
+    <row r="645" ht="14.25" customHeight="1">
       <c r="E645">
         <v>19</v>
       </c>
       <c r="F645" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="G645" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="H645">
         <v>2013</v>
       </c>
     </row>
-    <row r="646" ht="14.25">
+    <row r="646" ht="14.25" customHeight="1">
       <c r="E646">
         <v>20</v>
       </c>
       <c r="F646" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="G646" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="H646">
         <v>2003</v>
       </c>
     </row>
-    <row r="647" ht="14.25">
+    <row r="647" ht="14.25" customHeight="1">
       <c r="E647" s="10">
         <v>117</v>
       </c>
       <c r="F647" s="10" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="G647" s="10" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="H647" s="10">
         <v>2005</v>
       </c>
     </row>
-    <row r="648" ht="14.25">
+    <row r="648" ht="14.25" customHeight="1">
       <c r="D648" t="s">
         <v>119</v>
       </c>
@@ -40478,102 +40698,102 @@
         <v>0</v>
       </c>
       <c r="F648" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="G648" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="H648">
         <v>2019</v>
       </c>
     </row>
-    <row r="649" ht="14.25">
+    <row r="649" ht="14.25" customHeight="1">
       <c r="F649" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="G649" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="H649">
         <v>2025</v>
       </c>
     </row>
-    <row r="650" ht="14.25">
+    <row r="650" ht="14.25" customHeight="1">
       <c r="E650">
         <v>1</v>
       </c>
       <c r="F650" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="G650" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="H650">
         <v>2024</v>
       </c>
     </row>
-    <row r="651" ht="14.25">
+    <row r="651" ht="14.25" customHeight="1">
       <c r="F651" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="G651" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="H651">
         <v>2024</v>
       </c>
     </row>
-    <row r="652" ht="14.25">
+    <row r="652" ht="14.25" customHeight="1">
       <c r="E652">
         <v>2</v>
       </c>
       <c r="F652" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="G652" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="H652">
         <v>2024</v>
       </c>
     </row>
-    <row r="653" ht="14.25">
+    <row r="653" ht="14.25" customHeight="1">
       <c r="E653">
         <v>3</v>
       </c>
       <c r="F653" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="G653" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="H653">
         <v>2023</v>
       </c>
     </row>
-    <row r="654" ht="14.25">
+    <row r="654" ht="14.25" customHeight="1">
       <c r="E654">
         <v>5</v>
       </c>
       <c r="F654" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="G654" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="H654">
         <v>2022</v>
       </c>
     </row>
-    <row r="655" ht="14.25">
+    <row r="655" ht="14.25" customHeight="1">
       <c r="E655">
         <v>7</v>
       </c>
       <c r="F655" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="G655" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="H655">
         <v>2011</v>
@@ -40584,10 +40804,10 @@
         <v>8</v>
       </c>
       <c r="F656" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="G656" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="H656">
         <v>2000</v>
@@ -40598,10 +40818,10 @@
         <v>9</v>
       </c>
       <c r="F657" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="G657" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="H657">
         <v>2020</v>
@@ -40612,10 +40832,10 @@
         <v>13</v>
       </c>
       <c r="F658" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="G658" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="H658">
         <v>2007</v>
@@ -40626,10 +40846,10 @@
         <v>15</v>
       </c>
       <c r="F659" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="G659" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="H659">
         <v>2012</v>
@@ -40640,10 +40860,10 @@
         <v>16</v>
       </c>
       <c r="F660" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="G660" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="H660">
         <v>2005</v>
@@ -40651,10 +40871,10 @@
     </row>
     <row r="661" ht="14.25">
       <c r="F661" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="G661" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="H661">
         <v>2004</v>
@@ -40665,10 +40885,10 @@
         <v>46</v>
       </c>
       <c r="F662" s="10" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c r="G662" s="10" t="s">
-        <v>260</v>
+        <v>212</v>
       </c>
       <c r="H662" s="10">
         <v>2003</v>
@@ -40682,10 +40902,10 @@
         <v>1</v>
       </c>
       <c r="F663" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="G663" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="H663">
         <v>2024</v>
@@ -40699,10 +40919,10 @@
         <v>1</v>
       </c>
       <c r="F664" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="G664" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="H664">
         <v>2023</v>
@@ -40710,10 +40930,10 @@
     </row>
     <row r="665" ht="14.25">
       <c r="F665" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="G665" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="H665">
         <v>2025</v>
@@ -40724,10 +40944,10 @@
         <v>2</v>
       </c>
       <c r="F666" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="G666" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="H666">
         <v>2013</v>
@@ -40735,10 +40955,10 @@
     </row>
     <row r="667" ht="14.25">
       <c r="F667" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="G667" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="H667">
         <v>2020</v>
@@ -40749,10 +40969,10 @@
         <v>3</v>
       </c>
       <c r="F668" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="G668" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="H668">
         <v>2021</v>
@@ -40763,10 +40983,10 @@
         <v>4</v>
       </c>
       <c r="F669" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="G669" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="H669">
         <v>2019</v>
@@ -40777,10 +40997,10 @@
         <v>5</v>
       </c>
       <c r="F670" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="G670" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="H670">
         <v>2002</v>
@@ -40791,10 +41011,10 @@
         <v>7</v>
       </c>
       <c r="F671" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="G671" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="H671">
         <v>1990</v>
@@ -40805,10 +41025,10 @@
         <v>10</v>
       </c>
       <c r="F672" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="G672" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="H672">
         <v>2001</v>
@@ -40819,10 +41039,10 @@
         <v>14</v>
       </c>
       <c r="F673" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="G673" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="H673">
         <v>1990</v>
@@ -40833,10 +41053,10 @@
         <v>18</v>
       </c>
       <c r="F674" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="G674" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="H674">
         <v>2015</v>
@@ -40847,10 +41067,10 @@
         <v>26</v>
       </c>
       <c r="F675" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="G675" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="H675">
         <v>2000</v>
@@ -40861,10 +41081,10 @@
         <v>41</v>
       </c>
       <c r="F676" s="10" t="s">
-        <v>286</v>
+        <v>215</v>
       </c>
       <c r="G676" s="10" t="s">
-        <v>287</v>
+        <v>216</v>
       </c>
       <c r="H676" s="10">
         <v>2016</v>
@@ -40875,10 +41095,10 @@
         <v>51</v>
       </c>
       <c r="F677" s="10" t="s">
-        <v>288</v>
+        <v>219</v>
       </c>
       <c r="G677" s="10" t="s">
-        <v>289</v>
+        <v>220</v>
       </c>
       <c r="H677" s="10">
         <v>2003</v>
@@ -40892,10 +41112,10 @@
         <v>0</v>
       </c>
       <c r="F678" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="G678" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="H678">
         <v>1999</v>
@@ -40903,10 +41123,10 @@
     </row>
     <row r="679" ht="14.25">
       <c r="F679" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="G679" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="H679">
         <v>2018</v>
@@ -40914,10 +41134,10 @@
     </row>
     <row r="680" ht="14.25">
       <c r="F680" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="G680" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="H680">
         <v>2025</v>
@@ -40925,10 +41145,10 @@
     </row>
     <row r="681" ht="14.25">
       <c r="F681" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="G681" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="H681">
         <v>2022</v>
@@ -40936,10 +41156,10 @@
     </row>
     <row r="682" ht="14.25">
       <c r="F682" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="G682" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="H682">
         <v>2025</v>
@@ -40947,10 +41167,10 @@
     </row>
     <row r="683" ht="14.25">
       <c r="F683" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="G683" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="H683">
         <v>2023</v>
@@ -40958,10 +41178,10 @@
     </row>
     <row r="684" ht="14.25">
       <c r="F684" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="G684" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="H684">
         <v>2025</v>
@@ -40969,10 +41189,10 @@
     </row>
     <row r="685" ht="14.25">
       <c r="F685" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="G685" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="H685">
         <v>2024</v>
@@ -40980,10 +41200,10 @@
     </row>
     <row r="686" ht="14.25">
       <c r="F686" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="G686" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="H686">
         <v>2024</v>
@@ -40991,10 +41211,10 @@
     </row>
     <row r="687" ht="14.25">
       <c r="F687" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="G687" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="H687">
         <v>2025</v>
@@ -41002,10 +41222,10 @@
     </row>
     <row r="688" ht="14.25">
       <c r="F688" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="G688" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="H688">
         <v>2023</v>
@@ -41013,10 +41233,10 @@
     </row>
     <row r="689" ht="14.25">
       <c r="F689" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="G689" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="H689">
         <v>2025</v>
@@ -41024,10 +41244,10 @@
     </row>
     <row r="690" ht="14.25">
       <c r="F690" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="G690" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="H690">
         <v>2025</v>
@@ -41035,10 +41255,10 @@
     </row>
     <row r="691" ht="14.25">
       <c r="F691" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="G691" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="H691">
         <v>2025</v>
@@ -41049,10 +41269,10 @@
         <v>1</v>
       </c>
       <c r="F692" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="G692" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="H692">
         <v>2022</v>
@@ -41060,10 +41280,10 @@
     </row>
     <row r="693" ht="14.25">
       <c r="F693" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="G693" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="H693">
         <v>2024</v>
@@ -41071,10 +41291,10 @@
     </row>
     <row r="694" ht="14.25">
       <c r="F694" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="G694" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="H694">
         <v>2005</v>
@@ -41082,10 +41302,10 @@
     </row>
     <row r="695" ht="14.25">
       <c r="F695" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="G695" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="H695">
         <v>2016</v>
@@ -41093,10 +41313,10 @@
     </row>
     <row r="696" ht="14.25">
       <c r="F696" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="G696" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="H696">
         <v>2013</v>
@@ -41104,10 +41324,10 @@
     </row>
     <row r="697" ht="14.25">
       <c r="F697" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="G697" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="H697">
         <v>2025</v>
@@ -41118,10 +41338,10 @@
         <v>2</v>
       </c>
       <c r="F698" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="G698" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="H698">
         <v>2016</v>
@@ -41129,10 +41349,10 @@
     </row>
     <row r="699" ht="14.25">
       <c r="F699" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="G699" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="H699">
         <v>2021</v>
@@ -41140,10 +41360,10 @@
     </row>
     <row r="700" ht="14.25">
       <c r="F700" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="G700" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="H700">
         <v>2022</v>
@@ -41151,10 +41371,10 @@
     </row>
     <row r="701" ht="14.25">
       <c r="F701" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="G701" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="H701">
         <v>2024</v>
@@ -41165,10 +41385,10 @@
         <v>3</v>
       </c>
       <c r="F702" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="G702" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="H702">
         <v>2018</v>
@@ -41176,10 +41396,10 @@
     </row>
     <row r="703" ht="14.25">
       <c r="F703" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="G703" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="H703">
         <v>2003</v>
@@ -41187,10 +41407,10 @@
     </row>
     <row r="704" ht="14.25">
       <c r="F704" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="G704" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="H704">
         <v>2002</v>
@@ -41201,10 +41421,10 @@
         <v>4</v>
       </c>
       <c r="F705" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="G705" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="H705">
         <v>2015</v>
@@ -41212,10 +41432,10 @@
     </row>
     <row r="706" ht="14.25">
       <c r="F706" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="G706" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="H706">
         <v>2024</v>
@@ -41223,10 +41443,10 @@
     </row>
     <row r="707" ht="14.25">
       <c r="F707" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="G707" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="H707">
         <v>2015</v>
@@ -41234,10 +41454,10 @@
     </row>
     <row r="708" ht="14.25">
       <c r="F708" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="G708" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="H708">
         <v>2017</v>
@@ -41245,10 +41465,10 @@
     </row>
     <row r="709" ht="14.25">
       <c r="F709" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="G709" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="H709">
         <v>2021</v>
@@ -41259,10 +41479,10 @@
         <v>6</v>
       </c>
       <c r="F710" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="G710" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="H710">
         <v>2018</v>
@@ -41270,10 +41490,10 @@
     </row>
     <row r="711" ht="14.25">
       <c r="F711" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="G711" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="H711">
         <v>2019</v>
@@ -41284,10 +41504,10 @@
         <v>7</v>
       </c>
       <c r="F712" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="G712" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="H712">
         <v>2010</v>
@@ -41298,10 +41518,10 @@
         <v>9</v>
       </c>
       <c r="F713" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="G713" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="H713">
         <v>2018</v>
@@ -41309,10 +41529,10 @@
     </row>
     <row r="714" ht="14.25">
       <c r="F714" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="G714" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="H714">
         <v>2007</v>
@@ -41323,10 +41543,10 @@
         <v>11</v>
       </c>
       <c r="F715" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="G715" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="H715">
         <v>2003</v>
@@ -41334,10 +41554,10 @@
     </row>
     <row r="716" ht="14.25">
       <c r="F716" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="G716" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="H716">
         <v>2016</v>
@@ -41345,10 +41565,10 @@
     </row>
     <row r="717" ht="14.25">
       <c r="F717" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="G717" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="H717">
         <v>2001</v>
@@ -41356,10 +41576,10 @@
     </row>
     <row r="718" ht="14.25">
       <c r="F718" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="G718" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="H718">
         <v>2010</v>
@@ -41370,10 +41590,10 @@
         <v>12</v>
       </c>
       <c r="F719" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="G719" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="H719">
         <v>2011</v>
@@ -41384,10 +41604,10 @@
         <v>13</v>
       </c>
       <c r="F720" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="G720" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="H720">
         <v>1999</v>
@@ -41395,10 +41615,10 @@
     </row>
     <row r="721" ht="14.25">
       <c r="F721" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="G721" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="H721">
         <v>2020</v>
@@ -41409,10 +41629,10 @@
         <v>14</v>
       </c>
       <c r="F722" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="G722" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="H722">
         <v>2017</v>
@@ -41423,10 +41643,10 @@
         <v>17</v>
       </c>
       <c r="F723" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="G723" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="H723">
         <v>2011</v>
@@ -41434,10 +41654,10 @@
     </row>
     <row r="724" ht="14.25">
       <c r="F724" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="G724" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="H724">
         <v>2015</v>
@@ -41445,10 +41665,10 @@
     </row>
     <row r="725" ht="14.25">
       <c r="F725" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="G725" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="H725">
         <v>2012</v>
@@ -41456,10 +41676,10 @@
     </row>
     <row r="726" ht="14.25">
       <c r="F726" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="G726" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="H726">
         <v>2017</v>
@@ -41470,10 +41690,10 @@
         <v>18</v>
       </c>
       <c r="F727" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="G727" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="H727">
         <v>2008</v>
@@ -41484,10 +41704,10 @@
         <v>20</v>
       </c>
       <c r="F728" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="G728" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="H728">
         <v>2002</v>
@@ -41498,10 +41718,10 @@
         <v>21</v>
       </c>
       <c r="F729" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="G729" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="H729">
         <v>1986</v>
@@ -41509,10 +41729,10 @@
     </row>
     <row r="730" ht="14.25">
       <c r="F730" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="G730" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="H730">
         <v>2001</v>
@@ -41523,10 +41743,10 @@
         <v>25</v>
       </c>
       <c r="F731" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="G731" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="H731">
         <v>1987</v>
@@ -41534,10 +41754,10 @@
     </row>
     <row r="732" ht="14.25">
       <c r="F732" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="G732" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="H732">
         <v>2012</v>
@@ -41545,10 +41765,10 @@
     </row>
     <row r="733" ht="14.25">
       <c r="F733" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="G733" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="H733">
         <v>2011</v>
@@ -41559,10 +41779,10 @@
         <v>26</v>
       </c>
       <c r="F734" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="G734" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="H734">
         <v>2010</v>
@@ -41570,10 +41790,10 @@
     </row>
     <row r="735" ht="14.25">
       <c r="F735" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="G735" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="H735">
         <v>1996</v>
@@ -41584,10 +41804,10 @@
         <v>30</v>
       </c>
       <c r="F736" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="G736" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="H736">
         <v>2003</v>
@@ -41595,10 +41815,10 @@
     </row>
     <row r="737" ht="14.25">
       <c r="F737" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="G737" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="H737">
         <v>2021</v>
@@ -41609,10 +41829,10 @@
         <v>32</v>
       </c>
       <c r="F738" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="G738" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="H738">
         <v>2013</v>
@@ -41623,10 +41843,10 @@
         <v>35</v>
       </c>
       <c r="F739" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="G739" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="H739">
         <v>2009</v>
@@ -41637,10 +41857,10 @@
         <v>36</v>
       </c>
       <c r="F740" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="G740" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="H740">
         <v>2019</v>
@@ -41651,10 +41871,10 @@
         <v>39</v>
       </c>
       <c r="F741" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="G741" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="H741">
         <v>2012</v>
@@ -41665,10 +41885,10 @@
         <v>44</v>
       </c>
       <c r="F742" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="G742" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="H742">
         <v>1998</v>
@@ -41679,10 +41899,10 @@
         <v>56</v>
       </c>
       <c r="F743" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="G743" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="H743">
         <v>2002</v>
@@ -41690,10 +41910,10 @@
     </row>
     <row r="744" ht="14.25">
       <c r="F744" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="G744" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="H744">
         <v>2012</v>
@@ -41701,10 +41921,10 @@
     </row>
     <row r="745" ht="14.25">
       <c r="F745" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="G745" t="s">
-        <v>422</v>
+        <v>228</v>
       </c>
       <c r="H745">
         <v>2007</v>
@@ -41715,10 +41935,10 @@
         <v>72</v>
       </c>
       <c r="F746" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="G746" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="H746">
         <v>2001</v>
@@ -41729,10 +41949,10 @@
         <v>76</v>
       </c>
       <c r="F747" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="G747" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="H747">
         <v>2004</v>
@@ -41743,10 +41963,10 @@
         <v>95</v>
       </c>
       <c r="F748" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="G748" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="H748">
         <v>2001</v>
@@ -41757,10 +41977,10 @@
         <v>162</v>
       </c>
       <c r="F749" s="10" t="s">
-        <v>429</v>
+        <v>223</v>
       </c>
       <c r="G749" s="10" t="s">
-        <v>430</v>
+        <v>224</v>
       </c>
       <c r="H749" s="10">
         <v>2004</v>
@@ -41771,10 +41991,10 @@
         <v>172</v>
       </c>
       <c r="F750" s="10" t="s">
-        <v>431</v>
+        <v>227</v>
       </c>
       <c r="G750" s="10" t="s">
-        <v>422</v>
+        <v>228</v>
       </c>
       <c r="H750" s="10">
         <v>2007</v>
@@ -41785,10 +42005,10 @@
         <v>327</v>
       </c>
       <c r="F751" s="10" t="s">
-        <v>432</v>
+        <v>231</v>
       </c>
       <c r="G751" s="10" t="s">
-        <v>433</v>
+        <v>232</v>
       </c>
       <c r="H751" s="10">
         <v>2001</v>
@@ -41802,10 +42022,10 @@
         <v>0</v>
       </c>
       <c r="F752" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="G752" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="H752">
         <v>2025</v>
@@ -41816,10 +42036,10 @@
         <v>1</v>
       </c>
       <c r="F753" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="G753" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="H753">
         <v>1995</v>
@@ -41830,10 +42050,10 @@
         <v>3</v>
       </c>
       <c r="F754" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="G754" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="H754">
         <v>2004</v>
@@ -41841,10 +42061,10 @@
     </row>
     <row r="755" ht="14.25">
       <c r="F755" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="G755" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="H755">
         <v>2005</v>
@@ -41855,10 +42075,10 @@
         <v>8</v>
       </c>
       <c r="F756" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="G756" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="H756">
         <v>2003</v>
@@ -41866,10 +42086,10 @@
     </row>
     <row r="757" ht="14.25">
       <c r="F757" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="G757" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="H757">
         <v>2000</v>
@@ -41877,10 +42097,10 @@
     </row>
     <row r="758" ht="14.25">
       <c r="F758" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="G758" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="H758">
         <v>2022</v>
@@ -41891,10 +42111,10 @@
         <v>9</v>
       </c>
       <c r="F759" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="G759" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="H759">
         <v>2013</v>
@@ -41905,10 +42125,10 @@
         <v>10</v>
       </c>
       <c r="F760" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="G760" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="H760">
         <v>2023</v>
@@ -41916,10 +42136,10 @@
     </row>
     <row r="761" ht="14.25">
       <c r="F761" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="G761" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="H761">
         <v>2011</v>
@@ -41930,10 +42150,10 @@
         <v>17</v>
       </c>
       <c r="F762" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="G762" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="H762">
         <v>2013</v>
@@ -41944,10 +42164,10 @@
         <v>18</v>
       </c>
       <c r="F763" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="G763" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="H763">
         <v>2003</v>
@@ -41958,10 +42178,10 @@
         <v>24</v>
       </c>
       <c r="F764" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="G764" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="H764">
         <v>2022</v>
@@ -41972,10 +42192,10 @@
         <v>26</v>
       </c>
       <c r="F765" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="G765" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="H765">
         <v>2001</v>
@@ -41986,10 +42206,10 @@
         <v>29</v>
       </c>
       <c r="F766" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="G766" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="H766">
         <v>2006</v>
@@ -42000,10 +42220,10 @@
         <v>53</v>
       </c>
       <c r="F767" s="10" t="s">
-        <v>464</v>
+        <v>235</v>
       </c>
       <c r="G767" s="10" t="s">
-        <v>465</v>
+        <v>236</v>
       </c>
       <c r="H767" s="10">
         <v>2019</v>
@@ -42014,10 +42234,10 @@
         <v>205</v>
       </c>
       <c r="F768" s="10" t="s">
-        <v>466</v>
+        <v>239</v>
       </c>
       <c r="G768" s="10" t="s">
-        <v>467</v>
+        <v>240</v>
       </c>
       <c r="H768" s="10">
         <v>1992</v>
@@ -42031,10 +42251,10 @@
         <v>0</v>
       </c>
       <c r="F769" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="G769" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="H769">
         <v>2025</v>
@@ -42042,10 +42262,10 @@
     </row>
     <row r="770" ht="14.25">
       <c r="F770" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="G770" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="H770">
         <v>2025</v>
@@ -42053,10 +42273,10 @@
     </row>
     <row r="771" ht="14.25">
       <c r="F771" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G771" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H771">
         <v>2024</v>
@@ -42064,10 +42284,10 @@
     </row>
     <row r="772" ht="14.25">
       <c r="F772" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G772" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="H772">
         <v>2025</v>
@@ -42078,10 +42298,10 @@
         <v>1</v>
       </c>
       <c r="F773" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="G773" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="H773">
         <v>2024</v>
@@ -42092,10 +42312,10 @@
         <v>2</v>
       </c>
       <c r="F774" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="G774" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="H774">
         <v>2021</v>
@@ -42106,10 +42326,10 @@
         <v>3</v>
       </c>
       <c r="F775" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G775" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="H775">
         <v>2018</v>
@@ -42120,10 +42340,10 @@
         <v>139</v>
       </c>
       <c r="F776" s="10" t="s">
-        <v>482</v>
+        <v>243</v>
       </c>
       <c r="G776" s="10" t="s">
-        <v>483</v>
+        <v>244</v>
       </c>
       <c r="H776" s="10">
         <v>2020</v>
@@ -42574,13 +42794,13 @@
   <sheetData>
     <row r="1" ht="12.35">
       <c r="A1" s="28" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>2</v>
@@ -42589,10 +42809,10 @@
         <v>9</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H1" s="28" t="s">
         <v>115</v>
@@ -42607,16 +42827,16 @@
         <v>157</v>
       </c>
       <c r="L1" s="29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M1" s="29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N1" s="29" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O1" s="30" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" ht="12.35">
@@ -42624,10 +42844,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>287</v>
+        <v>216</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>286</v>
+        <v>215</v>
       </c>
       <c r="D2" s="26">
         <v>2016</v>
@@ -42639,7 +42859,7 @@
         <v>24</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>121</v>
@@ -42671,10 +42891,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="D3" s="26">
         <v>2018</v>
@@ -42686,7 +42906,7 @@
         <v>24</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H3" s="26" t="s">
         <v>122</v>
@@ -42718,10 +42938,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="D4" s="26">
         <v>2024</v>
@@ -42733,7 +42953,7 @@
         <v>41</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H4" s="26" t="s">
         <v>122</v>
@@ -42765,10 +42985,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="D5" s="26">
         <v>2024</v>
@@ -42780,7 +43000,7 @@
         <v>76</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H5" s="26" t="s">
         <v>122</v>
@@ -42812,10 +43032,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="D6" s="26">
         <v>2022</v>
@@ -42827,7 +43047,7 @@
         <v>51</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H6" s="26" t="s">
         <v>119</v>
@@ -42859,10 +43079,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>422</v>
+        <v>228</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>431</v>
+        <v>227</v>
       </c>
       <c r="D7" s="26">
         <v>2007</v>
@@ -42874,7 +43094,7 @@
         <v>36</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H7" s="26" t="s">
         <v>122</v>
@@ -42906,10 +43126,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D8" s="26">
         <v>2020</v>
@@ -42921,7 +43141,7 @@
         <v>41</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H8" s="26" t="s">
         <v>119</v>
@@ -42953,10 +43173,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="D9" s="26">
         <v>2012</v>
@@ -42968,7 +43188,7 @@
         <v>21</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H9" s="26" t="s">
         <v>122</v>
@@ -43000,10 +43220,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="D10" s="26">
         <v>2015</v>
@@ -43015,7 +43235,7 @@
         <v>24</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H10" s="26" t="s">
         <v>122</v>
@@ -43047,10 +43267,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="D11" s="26">
         <v>2012</v>
@@ -43062,7 +43282,7 @@
         <v>21</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H11" s="26" t="s">
         <v>122</v>
@@ -43094,10 +43314,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="D12" s="26">
         <v>2015</v>
@@ -43109,7 +43329,7 @@
         <v>24</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H12" s="26" t="s">
         <v>121</v>
@@ -43141,10 +43361,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="D13" s="26">
         <v>2010</v>
@@ -43156,7 +43376,7 @@
         <v>49</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H13" s="26" t="s">
         <v>122</v>
@@ -43188,10 +43408,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="D14" s="26">
         <v>2005</v>
@@ -43203,7 +43423,7 @@
         <v>21</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="H14" s="26" t="s">
         <v>118</v>
@@ -43235,10 +43455,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D15" s="26">
         <v>2011</v>
@@ -43250,7 +43470,7 @@
         <v>21</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H15" s="26" t="s">
         <v>118</v>
@@ -43282,10 +43502,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="D16" s="26">
         <v>2015</v>
@@ -43297,7 +43517,7 @@
         <v>24</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H16" s="26" t="s">
         <v>122</v>
@@ -43329,10 +43549,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D17" s="26">
         <v>2011</v>
@@ -43344,7 +43564,7 @@
         <v>24</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H17" s="26" t="s">
         <v>123</v>
@@ -43376,10 +43596,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="D18" s="26">
         <v>2018</v>
@@ -43388,10 +43608,10 @@
         <v>12</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H18" s="26" t="s">
         <v>122</v>
@@ -43423,10 +43643,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>422</v>
+        <v>228</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="D19" s="26">
         <v>2007</v>
@@ -43438,7 +43658,7 @@
         <v>21</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H19" s="26" t="s">
         <v>122</v>
@@ -43470,10 +43690,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="D20" s="26">
         <v>2003</v>
@@ -43485,7 +43705,7 @@
         <v>59</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H20" s="26" t="s">
         <v>122</v>
@@ -43517,10 +43737,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="D21" s="26">
         <v>2001</v>
@@ -43532,7 +43752,7 @@
         <v>28</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H21" s="26" t="s">
         <v>122</v>
@@ -43564,10 +43784,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>289</v>
+        <v>220</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>288</v>
+        <v>219</v>
       </c>
       <c r="D22" s="26">
         <v>2003</v>
@@ -43579,7 +43799,7 @@
         <v>28</v>
       </c>
       <c r="G22" s="31" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H22" s="26" t="s">
         <v>121</v>
@@ -43611,10 +43831,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="D23" s="26">
         <v>2001</v>
@@ -43626,7 +43846,7 @@
         <v>28</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H23" s="26" t="s">
         <v>122</v>
@@ -43658,10 +43878,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="D24" s="26">
         <v>2002</v>
@@ -43673,7 +43893,7 @@
         <v>28</v>
       </c>
       <c r="G24" s="31" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H24" s="26" t="s">
         <v>121</v>
@@ -43705,10 +43925,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="D25" s="26">
         <v>2002</v>
@@ -43720,7 +43940,7 @@
         <v>28</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H25" s="26" t="s">
         <v>122</v>
@@ -43752,10 +43972,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="D26" s="26">
         <v>2001</v>
@@ -43767,7 +43987,7 @@
         <v>28</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H26" s="26" t="s">
         <v>121</v>
@@ -43799,10 +44019,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="D27" s="26">
         <v>2001</v>
@@ -43814,7 +44034,7 @@
         <v>28</v>
       </c>
       <c r="G27" s="31" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H27" s="26" t="s">
         <v>122</v>
@@ -43846,10 +44066,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="D28" s="26">
         <v>2018</v>
@@ -43861,7 +44081,7 @@
         <v>24</v>
       </c>
       <c r="G28" s="31" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H28" s="26" t="s">
         <v>122</v>
@@ -43893,10 +44113,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="D29" s="26">
         <v>2001</v>
@@ -43908,7 +44128,7 @@
         <v>74</v>
       </c>
       <c r="G29" s="31" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H29" s="26" t="s">
         <v>123</v>
@@ -43940,10 +44160,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="D30" s="26">
         <v>2007</v>
@@ -43955,7 +44175,7 @@
         <v>61</v>
       </c>
       <c r="G30" s="31" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H30" s="26" t="s">
         <v>122</v>
@@ -43987,10 +44207,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="D31" s="26">
         <v>2022</v>
@@ -44002,7 +44222,7 @@
         <v>62</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H31" s="26" t="s">
         <v>122</v>
@@ -44034,10 +44254,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="D32" s="26">
         <v>2018</v>
@@ -44049,7 +44269,7 @@
         <v>109</v>
       </c>
       <c r="G32" s="31" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H32" s="26" t="s">
         <v>122</v>
@@ -44081,10 +44301,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="D33" s="26">
         <v>2023</v>
@@ -44096,7 +44316,7 @@
         <v>101</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H33" s="26" t="s">
         <v>122</v>
@@ -44128,10 +44348,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="D34" s="26">
         <v>2013</v>
@@ -44143,7 +44363,7 @@
         <v>86</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H34" s="26" t="s">
         <v>122</v>
@@ -44175,10 +44395,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="D35" s="26">
         <v>2021</v>
@@ -44190,7 +44410,7 @@
         <v>22</v>
       </c>
       <c r="G35" s="31" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H35" s="26" t="s">
         <v>122</v>
@@ -44222,10 +44442,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="D36" s="26">
         <v>2013</v>
@@ -44237,7 +44457,7 @@
         <v>58</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H36" s="26" t="s">
         <v>123</v>
@@ -44269,10 +44489,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="D37" s="26">
         <v>1998</v>
@@ -44284,7 +44504,7 @@
         <v>42</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H37" s="26" t="s">
         <v>122</v>
@@ -44316,10 +44536,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="D38" s="26">
         <v>2010</v>
@@ -44331,7 +44551,7 @@
         <v>84</v>
       </c>
       <c r="G38" s="31" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H38" s="26" t="s">
         <v>122</v>
@@ -44363,10 +44583,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="D39" s="26">
         <v>2002</v>
@@ -44378,7 +44598,7 @@
         <v>58</v>
       </c>
       <c r="G39" s="31" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="H39" s="26" t="s">
         <v>118</v>
@@ -44410,10 +44630,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="D40" s="26">
         <v>2010</v>
@@ -44425,7 +44645,7 @@
         <v>82</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H40" s="26" t="s">
         <v>122</v>
@@ -44457,10 +44677,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="D41" s="26">
         <v>2002</v>
@@ -44472,7 +44692,7 @@
         <v>40</v>
       </c>
       <c r="G41" s="31" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H41" s="26" t="s">
         <v>122</v>
@@ -44504,10 +44724,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="D42" s="26">
         <v>2022</v>
@@ -44519,7 +44739,7 @@
         <v>92</v>
       </c>
       <c r="G42" s="31" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H42" s="26" t="s">
         <v>122</v>
@@ -44551,10 +44771,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="D43" s="26">
         <v>2024</v>
@@ -44598,10 +44818,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>465</v>
+        <v>236</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>464</v>
+        <v>235</v>
       </c>
       <c r="D44" s="26">
         <v>2019</v>
@@ -44613,7 +44833,7 @@
         <v>30</v>
       </c>
       <c r="G44" s="31" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H44" s="26" t="s">
         <v>123</v>
@@ -44645,10 +44865,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="D45" s="26">
         <v>2021</v>
@@ -44660,7 +44880,7 @@
         <v>94</v>
       </c>
       <c r="G45" s="31" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H45" s="26" t="s">
         <v>122</v>
@@ -44692,10 +44912,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="D46" s="26">
         <v>2008</v>
@@ -44707,7 +44927,7 @@
         <v>42</v>
       </c>
       <c r="G46" s="31" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H46" s="26" t="s">
         <v>122</v>
@@ -44739,10 +44959,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="D47" s="26">
         <v>1986</v>
@@ -44754,7 +44974,7 @@
         <v>21</v>
       </c>
       <c r="G47" s="31" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H47" s="26" t="s">
         <v>122</v>
@@ -44786,10 +45006,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="D48" s="26">
         <v>1987</v>
@@ -44801,7 +45021,7 @@
         <v>21</v>
       </c>
       <c r="G48" s="31" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H48" s="26" t="s">
         <v>122</v>
@@ -44833,10 +45053,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="D49" s="26">
         <v>2019</v>
@@ -44848,7 +45068,7 @@
         <v>89</v>
       </c>
       <c r="G49" s="31" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H49" s="26" t="s">
         <v>121</v>
@@ -44880,10 +45100,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="D50" s="26">
         <v>2020</v>
@@ -44895,7 +45115,7 @@
         <v>89</v>
       </c>
       <c r="G50" s="31" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H50" s="26" t="s">
         <v>121</v>
@@ -44927,10 +45147,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="D51" s="26">
         <v>2004</v>
@@ -44942,7 +45162,7 @@
         <v>81</v>
       </c>
       <c r="G51" s="31" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H51" s="26" t="s">
         <v>123</v>
@@ -44974,10 +45194,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="D52" s="26">
         <v>2011</v>
@@ -44989,7 +45209,7 @@
         <v>53</v>
       </c>
       <c r="G52" s="31" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H52" s="26" t="s">
         <v>122</v>
@@ -45021,10 +45241,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="D53" s="26">
         <v>2016</v>
@@ -45036,7 +45256,7 @@
         <v>93</v>
       </c>
       <c r="G53" s="31" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H53" s="26" t="s">
         <v>122</v>
@@ -45068,10 +45288,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="D54" s="26">
         <v>2016</v>
@@ -45083,7 +45303,7 @@
         <v>90</v>
       </c>
       <c r="G54" s="31" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H54" s="26" t="s">
         <v>122</v>
@@ -45115,10 +45335,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>433</v>
+        <v>232</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>432</v>
+        <v>231</v>
       </c>
       <c r="D55" s="26">
         <v>2001</v>
@@ -45130,7 +45350,7 @@
         <v>30</v>
       </c>
       <c r="G55" s="31" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H55" s="26" t="s">
         <v>122</v>
@@ -45162,10 +45382,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D56" s="26">
         <v>2020</v>
@@ -45177,7 +45397,7 @@
         <v>51</v>
       </c>
       <c r="G56" s="31" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H56" s="26" t="s">
         <v>122</v>
@@ -45209,10 +45429,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D57" s="26">
         <v>2005</v>
@@ -45224,7 +45444,7 @@
         <v>56</v>
       </c>
       <c r="G57" s="31" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H57" s="26" t="s">
         <v>119</v>
@@ -45256,10 +45476,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="D58" s="26">
         <v>1990</v>
@@ -45271,7 +45491,7 @@
         <v>21</v>
       </c>
       <c r="G58" s="31" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H58" s="26" t="s">
         <v>121</v>
@@ -45303,10 +45523,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="D59" s="26">
         <v>2003</v>
@@ -45318,7 +45538,7 @@
         <v>46</v>
       </c>
       <c r="G59" s="31" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H59" s="26" t="s">
         <v>118</v>
@@ -45350,10 +45570,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="D60" s="26">
         <v>2013</v>
@@ -45365,7 +45585,7 @@
         <v>98</v>
       </c>
       <c r="G60" s="31" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H60" s="26" t="s">
         <v>122</v>
@@ -45397,10 +45617,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>430</v>
+        <v>224</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>429</v>
+        <v>223</v>
       </c>
       <c r="D61" s="26">
         <v>2004</v>
@@ -45412,7 +45632,7 @@
         <v>30</v>
       </c>
       <c r="G61" s="31" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H61" s="26" t="s">
         <v>122</v>
@@ -45444,10 +45664,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="D62" s="26">
         <v>2001</v>
@@ -45459,7 +45679,7 @@
         <v>42</v>
       </c>
       <c r="G62" s="31" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H62" s="26" t="s">
         <v>122</v>
@@ -45491,10 +45711,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D63" s="26">
         <v>2024</v>
@@ -45506,7 +45726,7 @@
         <v>43</v>
       </c>
       <c r="G63" s="31" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H63" s="26" t="s">
         <v>118</v>
@@ -45538,10 +45758,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D64" s="26">
         <v>2018</v>
@@ -45553,7 +45773,7 @@
         <v>85</v>
       </c>
       <c r="G64" s="31" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="H64" s="26" t="s">
         <v>124</v>
@@ -45585,10 +45805,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>467</v>
+        <v>240</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>466</v>
+        <v>239</v>
       </c>
       <c r="D65" s="26">
         <v>1992</v>
@@ -45600,7 +45820,7 @@
         <v>30</v>
       </c>
       <c r="G65" s="31" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H65" s="26" t="s">
         <v>123</v>
@@ -45632,10 +45852,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="D66" s="26">
         <v>2024</v>
@@ -45647,7 +45867,7 @@
         <v>54</v>
       </c>
       <c r="G66" s="31" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="H66" s="26" t="s">
         <v>119</v>
@@ -45679,10 +45899,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D67" s="26">
         <v>2020</v>
@@ -45726,10 +45946,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="D68" s="26">
         <v>2017</v>
@@ -45741,7 +45961,7 @@
         <v>64</v>
       </c>
       <c r="G68" s="31" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H68" s="26" t="s">
         <v>122</v>
@@ -45773,10 +45993,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="D69" s="26">
         <v>2011</v>
@@ -45788,7 +46008,7 @@
         <v>21</v>
       </c>
       <c r="G69" s="31" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H69" s="26" t="s">
         <v>122</v>
@@ -45820,10 +46040,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="D70" s="26">
         <v>2021</v>
@@ -45835,7 +46055,7 @@
         <v>83</v>
       </c>
       <c r="G70" s="31" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H70" s="26" t="s">
         <v>122</v>
@@ -45867,10 +46087,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="D71" s="26">
         <v>2024</v>
@@ -45882,7 +46102,7 @@
         <v>75</v>
       </c>
       <c r="G71" s="31" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H71" s="26" t="s">
         <v>122</v>
@@ -45914,10 +46134,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D72" s="26">
         <v>2012</v>
@@ -45929,7 +46149,7 @@
         <v>95</v>
       </c>
       <c r="G72" s="31" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H72" s="26" t="s">
         <v>119</v>
@@ -45961,10 +46181,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="D73" s="26">
         <v>1996</v>
@@ -45976,7 +46196,7 @@
         <v>45</v>
       </c>
       <c r="G73" s="31" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H73" s="26" t="s">
         <v>122</v>
@@ -46008,10 +46228,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="D74" s="26">
         <v>2006</v>
@@ -46023,7 +46243,7 @@
         <v>56</v>
       </c>
       <c r="G74" s="31" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H74" s="26" t="s">
         <v>123</v>
@@ -46055,10 +46275,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="D75" s="26">
         <v>2011</v>
@@ -46070,7 +46290,7 @@
         <v>77</v>
       </c>
       <c r="G75" s="31" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H75" s="26" t="s">
         <v>119</v>
@@ -46102,10 +46322,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="C76" s="31" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="D76" s="26">
         <v>2021</v>
@@ -46117,7 +46337,7 @@
         <v>105</v>
       </c>
       <c r="G76" s="31" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H76" s="26" t="s">
         <v>121</v>
@@ -46149,10 +46369,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C77" s="31" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="D77" s="26">
         <v>2003</v>
@@ -46164,7 +46384,7 @@
         <v>40</v>
       </c>
       <c r="G77" s="31" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H77" s="26" t="s">
         <v>123</v>
@@ -46196,10 +46416,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="D78" s="26">
         <v>2017</v>
@@ -46211,7 +46431,7 @@
         <v>97</v>
       </c>
       <c r="G78" s="31" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H78" s="26" t="s">
         <v>122</v>
@@ -46243,10 +46463,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="D79" s="26">
         <v>2023</v>
@@ -46258,7 +46478,7 @@
         <v>79</v>
       </c>
       <c r="G79" s="31" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H79" s="26" t="s">
         <v>121</v>
@@ -46290,10 +46510,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="D80" s="26">
         <v>2011</v>
@@ -46305,7 +46525,7 @@
         <v>90</v>
       </c>
       <c r="G80" s="31" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H80" s="26" t="s">
         <v>122</v>
@@ -46337,10 +46557,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="C81" s="31" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="D81" s="26">
         <v>2019</v>
@@ -46352,7 +46572,7 @@
         <v>68</v>
       </c>
       <c r="G81" s="31" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H81" s="26" t="s">
         <v>122</v>
@@ -46384,10 +46604,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="C82" s="31" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="D82" s="26">
         <v>2005</v>
@@ -46399,7 +46619,7 @@
         <v>56</v>
       </c>
       <c r="G82" s="31" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H82" s="26" t="s">
         <v>123</v>
@@ -46431,10 +46651,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="D83" s="26">
         <v>2013</v>
@@ -46446,7 +46666,7 @@
         <v>57</v>
       </c>
       <c r="G83" s="31" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H83" s="26" t="s">
         <v>118</v>
@@ -46478,10 +46698,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D84" s="26">
         <v>2023</v>
@@ -46490,10 +46710,10 @@
         <v>11</v>
       </c>
       <c r="F84" s="26" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="G84" s="31" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H84" s="26" t="s">
         <v>118</v>
@@ -46525,10 +46745,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D85" s="26">
         <v>2021</v>
@@ -46540,7 +46760,7 @@
         <v>103</v>
       </c>
       <c r="G85" s="31" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="H85" s="26" t="s">
         <v>124</v>
@@ -46572,10 +46792,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D86" s="26">
         <v>2019</v>
@@ -46619,10 +46839,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="D87" s="26">
         <v>2024</v>
@@ -46634,7 +46854,7 @@
         <v>99</v>
       </c>
       <c r="G87" s="31" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H87" s="26" t="s">
         <v>119</v>
@@ -46666,10 +46886,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="D88" s="26">
         <v>2022</v>
@@ -46681,7 +46901,7 @@
         <v>100</v>
       </c>
       <c r="G88" s="31" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H88" s="26" t="s">
         <v>123</v>
@@ -46713,10 +46933,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="D89" s="26">
         <v>2025</v>
@@ -46728,7 +46948,7 @@
         <v>26</v>
       </c>
       <c r="G89" s="31" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H89" s="26" t="s">
         <v>122</v>
@@ -46760,10 +46980,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="C90" s="31" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="D90" s="26">
         <v>2000</v>
@@ -46775,7 +46995,7 @@
         <v>52</v>
       </c>
       <c r="G90" s="31" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H90" s="26" t="s">
         <v>123</v>
@@ -46807,10 +47027,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="D91" s="26">
         <v>2024</v>
@@ -46822,7 +47042,7 @@
         <v>22</v>
       </c>
       <c r="G91" s="31" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H91" s="26" t="s">
         <v>118</v>
@@ -46854,10 +47074,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="31" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="C92" s="31" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="D92" s="26">
         <v>2000</v>
@@ -46869,7 +47089,7 @@
         <v>22</v>
       </c>
       <c r="G92" s="31" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H92" s="26" t="s">
         <v>119</v>
@@ -46901,10 +47121,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="C93" s="31" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="D93" s="26">
         <v>2024</v>
@@ -46916,7 +47136,7 @@
         <v>26</v>
       </c>
       <c r="G93" s="31" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H93" s="26" t="s">
         <v>122</v>
@@ -46948,10 +47168,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="D94" s="26">
         <v>2025</v>
@@ -46963,7 +47183,7 @@
         <v>26</v>
       </c>
       <c r="G94" s="31" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="H94" s="26" t="s">
         <v>121</v>
@@ -46995,10 +47215,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="C95" s="31" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="D95" s="26">
         <v>2025</v>
@@ -47010,7 +47230,7 @@
         <v>32</v>
       </c>
       <c r="G95" s="31" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H95" s="26" t="s">
         <v>122</v>
@@ -47042,10 +47262,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="C96" s="31" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="D96" s="26">
         <v>2023</v>
@@ -47057,7 +47277,7 @@
         <v>26</v>
       </c>
       <c r="G96" s="31" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H96" s="26" t="s">
         <v>122</v>
@@ -47089,10 +47309,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="C97" s="31" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="D97" s="26">
         <v>2025</v>
@@ -47104,7 +47324,7 @@
         <v>29</v>
       </c>
       <c r="G97" s="31" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H97" s="26" t="s">
         <v>119</v>
@@ -47136,10 +47356,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="C98" s="31" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="D98" s="26">
         <v>2025</v>
@@ -47151,7 +47371,7 @@
         <v>26</v>
       </c>
       <c r="G98" s="31" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H98" s="26" t="s">
         <v>122</v>
@@ -47183,10 +47403,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="D99" s="26">
         <v>2025</v>
@@ -47198,7 +47418,7 @@
         <v>112</v>
       </c>
       <c r="G99" s="31" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H99" s="26" t="s">
         <v>122</v>
@@ -47230,10 +47450,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="C100" s="31" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="D100" s="26">
         <v>2024</v>
@@ -47245,7 +47465,7 @@
         <v>88</v>
       </c>
       <c r="G100" s="31" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H100" s="26" t="s">
         <v>122</v>
@@ -47277,10 +47497,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="31" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="C101" s="31" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="D101" s="26">
         <v>2024</v>
@@ -47292,7 +47512,7 @@
         <v>22</v>
       </c>
       <c r="G101" s="31" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H101" s="26" t="s">
         <v>119</v>
@@ -47324,10 +47544,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="D102" s="26">
         <v>2019</v>
@@ -47339,7 +47559,7 @@
         <v>22</v>
       </c>
       <c r="G102" s="31" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H102" s="26" t="s">
         <v>122</v>
@@ -47371,10 +47591,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="C103" s="31" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="D103" s="26">
         <v>2019</v>
@@ -47386,7 +47606,7 @@
         <v>22</v>
       </c>
       <c r="G103" s="31" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H103" s="26" t="s">
         <v>119</v>
@@ -47418,10 +47638,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="C104" s="31" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="D104" s="26">
         <v>2025</v>
@@ -47433,7 +47653,7 @@
         <v>25</v>
       </c>
       <c r="G104" s="31" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H104" s="26" t="s">
         <v>122</v>
@@ -47465,10 +47685,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="31" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="C105" s="31" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="D105" s="26">
         <v>2022</v>
@@ -47480,7 +47700,7 @@
         <v>35</v>
       </c>
       <c r="G105" s="31" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H105" s="26" t="s">
         <v>122</v>
@@ -47512,10 +47732,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="31" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C106" s="31" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D106" s="26">
         <v>2024</v>
@@ -47559,10 +47779,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="C107" s="31" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="D107" s="26">
         <v>2022</v>
@@ -47574,7 +47794,7 @@
         <v>23</v>
       </c>
       <c r="G107" s="31" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H107" s="26" t="s">
         <v>123</v>
@@ -47606,10 +47826,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C108" s="31" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D108" s="26">
         <v>2025</v>
@@ -47621,7 +47841,7 @@
         <v>60</v>
       </c>
       <c r="G108" s="31" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="H108" s="26" t="s">
         <v>124</v>
@@ -47653,10 +47873,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="31" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C109" s="31" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D109" s="26">
         <v>2024</v>
@@ -47668,7 +47888,7 @@
         <v>48</v>
       </c>
       <c r="G109" s="31" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="H109" s="26" t="s">
         <v>124</v>
@@ -47700,10 +47920,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C110" s="31" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D110" s="26">
         <v>2024</v>
@@ -47747,10 +47967,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C111" s="31" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D111" s="26">
         <v>2024</v>
@@ -47762,7 +47982,7 @@
         <v>22</v>
       </c>
       <c r="G111" s="31" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H111" s="26" t="s">
         <v>118</v>
@@ -47794,10 +48014,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C112" s="31" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D112" s="26">
         <v>2024</v>
@@ -47809,7 +48029,7 @@
         <v>34</v>
       </c>
       <c r="G112" s="31" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="H112" s="26" t="s">
         <v>124</v>
@@ -47841,10 +48061,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="31" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C113" s="31" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D113" s="26">
         <v>2024</v>
@@ -47888,10 +48108,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="31" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C114" s="31" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D114" s="26">
         <v>2025</v>
@@ -47903,7 +48123,7 @@
         <v>87</v>
       </c>
       <c r="G114" s="31" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="H114" s="26" t="s">
         <v>124</v>
@@ -47935,10 +48155,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="31" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C115" s="31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D115" s="26">
         <v>2025</v>
@@ -47982,10 +48202,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="C116" s="31" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="D116" s="26">
         <v>2015</v>
@@ -47997,7 +48217,7 @@
         <v>26</v>
       </c>
       <c r="G116" s="31" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H116" s="26" t="s">
         <v>122</v>
@@ -48029,10 +48249,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="31" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C117" s="31" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D117" s="26">
         <v>2023</v>
@@ -48076,10 +48296,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="31" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C118" s="31" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D118" s="26">
         <v>2023</v>
@@ -48091,7 +48311,7 @@
         <v>106</v>
       </c>
       <c r="G118" s="31" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H118" s="26" t="s">
         <v>118</v>
@@ -48123,10 +48343,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="31" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C119" s="31" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="D119" s="26">
         <v>2025</v>
@@ -48138,7 +48358,7 @@
         <v>108</v>
       </c>
       <c r="G119" s="31" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H119" s="26" t="s">
         <v>123</v>
@@ -48170,10 +48390,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C120" s="31" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D120" s="26">
         <v>2025</v>
@@ -48185,7 +48405,7 @@
         <v>27</v>
       </c>
       <c r="G120" s="31" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="H120" s="26" t="s">
         <v>124</v>
@@ -48217,10 +48437,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="31" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="C121" s="31" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="D121" s="26">
         <v>2025</v>
@@ -48232,7 +48452,7 @@
         <v>87</v>
       </c>
       <c r="G121" s="31" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="H121" s="26" t="s">
         <v>122</v>
@@ -48264,10 +48484,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="31" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C122" s="31" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D122" s="26">
         <v>2024</v>
@@ -48311,10 +48531,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="31" t="s">
-        <v>483</v>
+        <v>244</v>
       </c>
       <c r="C123" s="31" t="s">
-        <v>482</v>
+        <v>243</v>
       </c>
       <c r="D123" s="26">
         <v>2020</v>
@@ -48326,7 +48546,7 @@
         <v>37</v>
       </c>
       <c r="G123" s="31" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="H123" s="26" t="s">
         <v>124</v>
@@ -48358,10 +48578,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="31" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="C124" s="31" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="D124" s="26">
         <v>2023</v>
@@ -48373,7 +48593,7 @@
         <v>33</v>
       </c>
       <c r="G124" s="31" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H124" s="26" t="s">
         <v>123</v>
@@ -48405,10 +48625,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="31" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="C125" s="31" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="D125" s="26">
         <v>1999</v>
@@ -48420,7 +48640,7 @@
         <v>80</v>
       </c>
       <c r="G125" s="31" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H125" s="26" t="s">
         <v>122</v>
@@ -48452,10 +48672,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="31" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="C126" s="31" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="D126" s="26">
         <v>2005</v>
@@ -48467,7 +48687,7 @@
         <v>38</v>
       </c>
       <c r="G126" s="31" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H126" s="26" t="s">
         <v>122</v>
@@ -48499,10 +48719,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="31" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="C127" s="31" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="D127" s="26">
         <v>2004</v>
@@ -48514,7 +48734,7 @@
         <v>22</v>
       </c>
       <c r="G127" s="31" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H127" s="26" t="s">
         <v>122</v>
@@ -48546,10 +48766,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="31" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C128" s="31" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="D128" s="26">
         <v>2009</v>
@@ -48561,7 +48781,7 @@
         <v>21</v>
       </c>
       <c r="G128" s="31" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H128" s="26" t="s">
         <v>122</v>
@@ -48593,10 +48813,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="26" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="C129" s="26" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="D129" s="26">
         <v>1990</v>
@@ -48608,7 +48828,7 @@
         <v>78</v>
       </c>
       <c r="G129" s="26" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H129" s="26" t="s">
         <v>121</v>
@@ -48640,10 +48860,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="C130" s="26" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="D130" s="26">
         <v>2017</v>
@@ -48655,7 +48875,7 @@
         <v>91</v>
       </c>
       <c r="G130" s="26" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H130" s="26" t="s">
         <v>122</v>
@@ -48687,10 +48907,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="26" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="C131" s="26" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="D131" s="26">
         <v>2012</v>
@@ -48702,7 +48922,7 @@
         <v>67</v>
       </c>
       <c r="G131" s="26" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H131" s="26" t="s">
         <v>122</v>
@@ -48734,10 +48954,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="26" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="C132" s="26" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="D132" s="26">
         <v>2013</v>
@@ -48749,7 +48969,7 @@
         <v>55</v>
       </c>
       <c r="G132" s="26" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H132" s="26" t="s">
         <v>121</v>
@@ -48781,10 +49001,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="26" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="C133" s="26" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="D133" s="26">
         <v>2013</v>
@@ -48796,7 +49016,7 @@
         <v>39</v>
       </c>
       <c r="G133" s="26" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H133" s="26" t="s">
         <v>118</v>
@@ -48828,10 +49048,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="26" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="C134" s="26" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="D134" s="26">
         <v>2016</v>
@@ -48843,7 +49063,7 @@
         <v>71</v>
       </c>
       <c r="G134" s="26" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H134" s="26" t="s">
         <v>122</v>
@@ -48875,10 +49095,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="26" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="C135" s="26" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="D135" s="26">
         <v>1999</v>
@@ -48890,7 +49110,7 @@
         <v>74</v>
       </c>
       <c r="G135" s="26" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H135" s="26" t="s">
         <v>122</v>
@@ -48922,10 +49142,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="26" t="s">
-        <v>260</v>
+        <v>212</v>
       </c>
       <c r="C136" s="26" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c r="D136" s="26">
         <v>2003</v>
@@ -48937,7 +49157,7 @@
         <v>72</v>
       </c>
       <c r="G136" s="26" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H136" s="26" t="s">
         <v>119</v>
@@ -48969,10 +49189,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="26" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="D137" s="26">
         <v>2012</v>
@@ -48984,7 +49204,7 @@
         <v>110</v>
       </c>
       <c r="G137" s="26" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H137" s="26" t="s">
         <v>122</v>
@@ -49016,10 +49236,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="26" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="C138" s="26" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="D138" s="26">
         <v>2004</v>
@@ -49028,10 +49248,10 @@
         <v>13</v>
       </c>
       <c r="F138" s="26" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G138" s="26" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="H138" s="26" t="s">
         <v>119</v>
@@ -49063,10 +49283,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="26" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="C139" s="26" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="D139" s="26">
         <v>2000</v>
@@ -49078,7 +49298,7 @@
         <v>70</v>
       </c>
       <c r="G139" s="26" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H139" s="26" t="s">
         <v>121</v>
@@ -49110,10 +49330,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="26" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C140" s="26" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D140" s="26">
         <v>2008</v>
@@ -49125,7 +49345,7 @@
         <v>69</v>
       </c>
       <c r="G140" s="26" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H140" s="26" t="s">
         <v>118</v>
@@ -49157,10 +49377,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="26" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D141" s="26">
         <v>2013</v>
@@ -49172,7 +49392,7 @@
         <v>63</v>
       </c>
       <c r="G141" s="26" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H141" s="26" t="s">
         <v>123</v>
@@ -49204,10 +49424,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="26" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="C142" s="26" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="D142" s="26">
         <v>2020</v>
@@ -49216,10 +49436,10 @@
         <v>11</v>
       </c>
       <c r="F142" s="26" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G142" s="26" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H142" s="26" t="s">
         <v>118</v>
@@ -49251,10 +49471,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="26" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C143" s="26" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="D143" s="26">
         <v>1995</v>
@@ -49266,7 +49486,7 @@
         <v>52</v>
       </c>
       <c r="G143" s="26" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H143" s="26" t="s">
         <v>123</v>
@@ -49298,10 +49518,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="26" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="D144" s="26">
         <v>2003</v>
@@ -49313,7 +49533,7 @@
         <v>40</v>
       </c>
       <c r="G144" s="26" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H144" s="26" t="s">
         <v>122</v>
@@ -49345,10 +49565,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="26" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="C145" s="26" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="D145" s="26">
         <v>2003</v>
@@ -49360,7 +49580,7 @@
         <v>31</v>
       </c>
       <c r="G145" s="26" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H145" s="26" t="s">
         <v>122</v>
@@ -49392,10 +49612,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="26" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="C146" s="26" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="D146" s="26">
         <v>2003</v>
@@ -49407,7 +49627,7 @@
         <v>42</v>
       </c>
       <c r="G146" s="26" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H146" s="26" t="s">
         <v>123</v>
@@ -49439,10 +49659,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="26" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="D147" s="26">
         <v>2007</v>
@@ -49454,7 +49674,7 @@
         <v>66</v>
       </c>
       <c r="G147" s="26" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H147" s="26" t="s">
         <v>118</v>
@@ -49486,10 +49706,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="26" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="C148" s="26" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="D148" s="26">
         <v>2007</v>
@@ -49501,7 +49721,7 @@
         <v>65</v>
       </c>
       <c r="G148" s="26" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H148" s="26" t="s">
         <v>119</v>
@@ -49533,10 +49753,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="26" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="D149" s="26">
         <v>2002</v>
@@ -49545,10 +49765,10 @@
         <v>13</v>
       </c>
       <c r="F149" s="26" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G149" s="26" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H149" s="26" t="s">
         <v>122</v>
@@ -49580,10 +49800,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="26" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="C150" s="26" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="D150" s="26">
         <v>2025</v>
@@ -49595,7 +49815,7 @@
         <v>111</v>
       </c>
       <c r="G150" s="26" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H150" s="26" t="s">
         <v>122</v>
@@ -49627,10 +49847,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="26" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="C151" s="26" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="D151" s="26">
         <v>2025</v>
@@ -49642,7 +49862,7 @@
         <v>107</v>
       </c>
       <c r="G151" s="26" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H151" s="26" t="s">
         <v>122</v>
@@ -49674,10 +49894,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="26" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C152" s="26" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="D152" s="26">
         <v>2023</v>
@@ -49689,7 +49909,7 @@
         <v>73</v>
       </c>
       <c r="G152" s="26" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H152" s="26" t="s">
         <v>119</v>
@@ -49783,19 +50003,19 @@
   <sheetData>
     <row r="1" ht="12.35">
       <c r="A1" s="28" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F1" s="28" t="s">
         <v>155</v>
@@ -49804,7 +50024,7 @@
         <v>157</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I1" s="28" t="s">
         <v>142</v>
@@ -49813,25 +50033,25 @@
         <v>115</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N1" s="28" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="O1" s="28" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="P1" s="28" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="Q1" s="28" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" ht="12.75">
@@ -49839,16 +50059,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>148</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>148</v>
@@ -49884,7 +50104,7 @@
         <v>2001</v>
       </c>
       <c r="Q2" s="31" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" ht="12.75">
@@ -49892,22 +50112,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D3" s="31" t="s">
         <v>148</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F3" s="31" t="s">
         <v>148</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H3" s="31" t="s">
         <v>147</v>
@@ -49937,7 +50157,7 @@
         <v>2011</v>
       </c>
       <c r="Q3" s="31" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4" ht="12.75">
@@ -49945,10 +50165,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>148</v>
@@ -49990,7 +50210,7 @@
         <v>2012</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="5" ht="12.75">
@@ -49998,16 +50218,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F5" s="31" t="s">
         <v>148</v>
@@ -50043,7 +50263,7 @@
         <v>2017</v>
       </c>
       <c r="Q5" s="31" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6" ht="12.75">
@@ -50051,16 +50271,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>147</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F6" s="31" t="s">
         <v>148</v>
@@ -50096,7 +50316,7 @@
         <v>2022</v>
       </c>
       <c r="Q6" s="31" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" ht="12.75">
@@ -50104,16 +50324,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F7" s="31" t="s">
         <v>148</v>
@@ -50149,7 +50369,7 @@
         <v>2021</v>
       </c>
       <c r="Q7" s="31" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" ht="12.75">
@@ -50157,16 +50377,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D8" s="31" t="s">
         <v>148</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F8" s="31" t="s">
         <v>148</v>
@@ -50202,7 +50422,7 @@
         <v>2024</v>
       </c>
       <c r="Q8" s="31" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="9" ht="12.75">
@@ -50210,22 +50430,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F9" s="31" t="s">
         <v>148</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H9" s="31" t="s">
         <v>147</v>
@@ -50255,7 +50475,7 @@
         <v>2025</v>
       </c>
       <c r="Q9" s="31" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="10" ht="12.75">
@@ -50263,16 +50483,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D10" s="31" t="s">
         <v>147</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F10" s="31" t="s">
         <v>148</v>
@@ -50308,7 +50528,7 @@
         <v>2024</v>
       </c>
       <c r="Q10" s="31" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="11" ht="12.75">
@@ -50316,16 +50536,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>148</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F11" s="31" t="s">
         <v>148</v>
@@ -50361,7 +50581,7 @@
         <v>2023</v>
       </c>
       <c r="Q11" s="31" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" ht="12.75">
@@ -50369,16 +50589,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D12" s="31" t="s">
         <v>148</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F12" s="31" t="s">
         <v>148</v>
@@ -50414,7 +50634,7 @@
         <v>2014</v>
       </c>
       <c r="Q12" s="31" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="13" ht="12.75">
@@ -50422,22 +50642,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>148</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F13" s="31" t="s">
         <v>148</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H13" s="31" t="s">
         <v>147</v>
@@ -50467,7 +50687,7 @@
         <v>2025</v>
       </c>
       <c r="Q13" s="31" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="14" ht="12.75">
@@ -50475,16 +50695,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D14" s="31" t="s">
         <v>148</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F14" s="31" t="s">
         <v>147</v>
@@ -50520,7 +50740,7 @@
         <v>2025</v>
       </c>
       <c r="Q14" s="31" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" ht="12.75">
@@ -50528,16 +50748,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>148</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F15" s="31" t="s">
         <v>148</v>
@@ -50573,7 +50793,7 @@
         <v>2023</v>
       </c>
       <c r="Q15" s="31" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="16" ht="12.75">
@@ -50581,16 +50801,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D16" s="31" t="s">
         <v>148</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F16" s="31" t="s">
         <v>148</v>
@@ -50626,7 +50846,7 @@
         <v>2015</v>
       </c>
       <c r="Q16" s="31" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" ht="12.75">
@@ -50634,16 +50854,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D17" s="31" t="s">
         <v>147</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F17" s="31" t="s">
         <v>148</v>
@@ -50679,7 +50899,7 @@
         <v>2024</v>
       </c>
       <c r="Q17" s="31" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="18" ht="12.75">
@@ -50687,16 +50907,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D18" s="31" t="s">
         <v>147</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F18" s="31" t="s">
         <v>148</v>
@@ -50732,7 +50952,7 @@
         <v>2024</v>
       </c>
       <c r="Q18" s="31" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="19" ht="12.75">
@@ -50740,16 +50960,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D19" s="31" t="s">
         <v>147</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F19" s="31" t="s">
         <v>148</v>
@@ -50785,7 +51005,7 @@
         <v>2024</v>
       </c>
       <c r="Q19" s="31" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="20" ht="12.75">
@@ -50793,16 +51013,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>147</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F20" s="31" t="s">
         <v>148</v>
@@ -50838,7 +51058,7 @@
         <v>2025</v>
       </c>
       <c r="Q20" s="31" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="21" ht="12.75">
@@ -50846,10 +51066,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D21" s="31" t="s">
         <v>148</v>
@@ -50891,7 +51111,7 @@
         <v>2023</v>
       </c>
       <c r="Q21" s="31" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="22" ht="12.75">
@@ -50899,10 +51119,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D22" s="31" t="s">
         <v>148</v>
@@ -50944,7 +51164,7 @@
         <v>2025</v>
       </c>
       <c r="Q22" s="31" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23" ht="12.75">
@@ -50952,22 +51172,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D23" s="31" t="s">
         <v>148</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F23" s="31" t="s">
         <v>147</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>147</v>
@@ -50997,7 +51217,7 @@
         <v>2025</v>
       </c>
       <c r="Q23" s="31" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="24" ht="12.75">
@@ -51005,10 +51225,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D24" s="31" t="s">
         <v>148</v>
@@ -51050,7 +51270,7 @@
         <v>1996</v>
       </c>
       <c r="Q24" s="31" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="25" ht="12.75">
@@ -51058,22 +51278,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D25" s="31" t="s">
         <v>148</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F25" s="31" t="s">
         <v>147</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H25" s="31" t="s">
         <v>147</v>
@@ -51103,7 +51323,7 @@
         <v>2013</v>
       </c>
       <c r="Q25" s="31" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="26" ht="12.75">
@@ -51111,22 +51331,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D26" s="31" t="s">
         <v>148</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="F26" s="31" t="s">
         <v>147</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H26" s="31" t="s">
         <v>147</v>
@@ -51156,7 +51376,7 @@
         <v>2024</v>
       </c>
       <c r="Q26" s="31" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="27" ht="12.75">
@@ -51164,22 +51384,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F27" s="31" t="s">
         <v>148</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="H27" s="31" t="s">
         <v>147</v>
@@ -51209,7 +51429,7 @@
         <v>2025</v>
       </c>
       <c r="Q27" s="31" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="28" ht="12.75">
@@ -51217,16 +51437,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D28" s="31" t="s">
         <v>147</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F28" s="31" t="s">
         <v>148</v>
@@ -51262,7 +51482,7 @@
         <v>2025</v>
       </c>
       <c r="Q28" s="31" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="29" ht="12.75">
@@ -51270,22 +51490,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D29" s="31" t="s">
         <v>147</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F29" s="31" t="s">
         <v>148</v>
       </c>
       <c r="G29" s="31" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="H29" s="31" t="s">
         <v>147</v>
@@ -51309,13 +51529,13 @@
         <v>162</v>
       </c>
       <c r="O29" s="31" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="P29" s="26">
         <v>2025</v>
       </c>
       <c r="Q29" s="31" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="30" ht="12.75">
@@ -51323,16 +51543,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D30" s="31" t="s">
         <v>147</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F30" s="31" t="s">
         <v>147</v>
@@ -51368,7 +51588,7 @@
         <v>2010</v>
       </c>
       <c r="Q30" s="31" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="31" ht="12.75">
@@ -51376,16 +51596,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D31" s="31" t="s">
         <v>147</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F31" s="31" t="s">
         <v>148</v>
@@ -51421,7 +51641,7 @@
         <v>2025</v>
       </c>
       <c r="Q31" s="31" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="32" ht="12.75">
@@ -51429,16 +51649,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D32" s="31" t="s">
         <v>147</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F32" s="31" t="s">
         <v>148</v>
@@ -51468,13 +51688,13 @@
         <v>147</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="P32" s="31" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="Q32" s="31" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="33" ht="12.75">
@@ -51482,16 +51702,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F33" s="31" t="s">
         <v>148</v>
@@ -51527,7 +51747,7 @@
         <v>2025</v>
       </c>
       <c r="Q33" s="31" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="34" ht="12.75">
@@ -51535,16 +51755,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D34" s="31" t="s">
         <v>147</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F34" s="31" t="s">
         <v>148</v>
@@ -51580,7 +51800,7 @@
         <v>2017</v>
       </c>
       <c r="Q34" s="31" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="35" ht="12.75">
@@ -51588,16 +51808,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D35" s="31" t="s">
         <v>148</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F35" s="31" t="s">
         <v>147</v>
@@ -51633,7 +51853,7 @@
         <v>2025</v>
       </c>
       <c r="Q35" s="31" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="36" ht="12.75">
@@ -51641,16 +51861,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D36" s="31" t="s">
         <v>147</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F36" s="31" t="s">
         <v>148</v>
@@ -51680,13 +51900,13 @@
         <v>147</v>
       </c>
       <c r="O36" s="31" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="P36" s="31" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="Q36" s="31" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="37" ht="12.75">
@@ -51694,22 +51914,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D37" s="31" t="s">
         <v>148</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F37" s="31" t="s">
         <v>147</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H37" s="31" t="s">
         <v>147</v>
@@ -51739,7 +51959,7 @@
         <v>2025</v>
       </c>
       <c r="Q37" s="31" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="38" ht="12.75">
@@ -51747,16 +51967,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D38" s="31" t="s">
         <v>147</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F38" s="31" t="s">
         <v>148</v>
@@ -51792,7 +52012,7 @@
         <v>2021</v>
       </c>
       <c r="Q38" s="31" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="39" ht="12.75">
@@ -51800,16 +52020,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F39" s="31" t="s">
         <v>148</v>
@@ -51845,7 +52065,7 @@
         <v>2024</v>
       </c>
       <c r="Q39" s="31" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="40" ht="12.75">
@@ -51853,16 +52073,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D40" s="31" t="s">
         <v>148</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F40" s="31" t="s">
         <v>148</v>
@@ -51898,7 +52118,7 @@
         <v>2019</v>
       </c>
       <c r="Q40" s="31" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="41" ht="12.75">
@@ -51906,16 +52126,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D41" s="31" t="s">
         <v>148</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F41" s="31" t="s">
         <v>148</v>
@@ -51951,7 +52171,7 @@
         <v>2015</v>
       </c>
       <c r="Q41" s="31" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="42" ht="12.75">
@@ -51959,16 +52179,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D42" s="31" t="s">
         <v>147</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F42" s="31" t="s">
         <v>148</v>
@@ -51998,13 +52218,13 @@
         <v>147</v>
       </c>
       <c r="O42" s="31" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="P42" s="31" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="Q42" s="31" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="43" ht="12.75">
@@ -52012,16 +52232,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D43" s="31" t="s">
         <v>148</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F43" s="31" t="s">
         <v>148</v>
@@ -52057,7 +52277,7 @@
         <v>2021</v>
       </c>
       <c r="Q43" s="31" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="44" ht="12.75">
@@ -52065,16 +52285,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D44" s="31" t="s">
         <v>148</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F44" s="31" t="s">
         <v>148</v>
@@ -52110,7 +52330,7 @@
         <v>2019</v>
       </c>
       <c r="Q44" s="31" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="45" ht="12.75">
@@ -52118,22 +52338,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="D45" s="31" t="s">
         <v>147</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F45" s="31" t="s">
         <v>147</v>
       </c>
       <c r="G45" s="31" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H45" s="31" t="s">
         <v>147</v>
@@ -52163,7 +52383,7 @@
         <v>2024</v>
       </c>
       <c r="Q45" s="31" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="46" ht="12.75">
@@ -52171,16 +52391,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D46" s="31" t="s">
         <v>148</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F46" s="31" t="s">
         <v>148</v>
@@ -52216,7 +52436,7 @@
         <v>2019</v>
       </c>
       <c r="Q46" s="31" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="47" ht="12.75">
@@ -52224,10 +52444,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="D47" s="31" t="s">
         <v>148</v>
@@ -52239,7 +52459,7 @@
         <v>147</v>
       </c>
       <c r="G47" s="31" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H47" s="31" t="s">
         <v>147</v>
@@ -52269,7 +52489,7 @@
         <v>2005</v>
       </c>
       <c r="Q47" s="31" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="48" ht="12.75">
@@ -52277,16 +52497,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D48" s="31" t="s">
         <v>147</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F48" s="31" t="s">
         <v>148</v>
@@ -52316,13 +52536,13 @@
         <v>162</v>
       </c>
       <c r="O48" s="31" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="P48" s="31" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="Q48" s="31" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="49" ht="12.75">
@@ -52330,16 +52550,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D49" s="31" t="s">
         <v>148</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F49" s="31" t="s">
         <v>148</v>
@@ -52375,7 +52595,7 @@
         <v>2025</v>
       </c>
       <c r="Q49" s="31" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="50" ht="12.75">
@@ -52383,16 +52603,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D50" s="31" t="s">
         <v>148</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F50" s="31" t="s">
         <v>148</v>
@@ -52428,7 +52648,7 @@
         <v>2025</v>
       </c>
       <c r="Q50" s="31" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="51" ht="12.75">
@@ -52436,16 +52656,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D51" s="31" t="s">
         <v>147</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F51" s="31" t="s">
         <v>148</v>
@@ -52481,7 +52701,7 @@
         <v>2025</v>
       </c>
       <c r="Q51" s="31" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="52" ht="12.75">
@@ -52489,16 +52709,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D52" s="31" t="s">
         <v>147</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F52" s="31" t="s">
         <v>147</v>
@@ -52528,13 +52748,13 @@
         <v>147</v>
       </c>
       <c r="O52" s="31" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="P52" s="31" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="Q52" s="31" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="53" ht="12.75">
@@ -52542,16 +52762,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D53" s="31" t="s">
         <v>147</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F53" s="31" t="s">
         <v>147</v>
@@ -52581,13 +52801,13 @@
         <v>147</v>
       </c>
       <c r="O53" s="31" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="P53" s="31" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="Q53" s="31" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="54" ht="12.75">
@@ -52595,10 +52815,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D54" s="31" t="s">
         <v>148</v>
@@ -52610,7 +52830,7 @@
         <v>147</v>
       </c>
       <c r="G54" s="31" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H54" s="31" t="s">
         <v>147</v>
@@ -52640,7 +52860,7 @@
         <v>2025</v>
       </c>
       <c r="Q54" s="31" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="55" ht="12.75">
@@ -52648,10 +52868,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D55" s="31" t="s">
         <v>148</v>
@@ -52663,7 +52883,7 @@
         <v>147</v>
       </c>
       <c r="G55" s="31" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H55" s="31" t="s">
         <v>147</v>
@@ -52693,7 +52913,7 @@
         <v>2021</v>
       </c>
       <c r="Q55" s="31" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="56" ht="12.75">
@@ -52701,22 +52921,22 @@
         <v>55</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D56" s="31" t="s">
         <v>148</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F56" s="31" t="s">
         <v>147</v>
       </c>
       <c r="G56" s="31" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H56" s="31" t="s">
         <v>147</v>
@@ -52746,7 +52966,7 @@
         <v>2025</v>
       </c>
       <c r="Q56" s="31" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="57" ht="12.75">
@@ -52754,22 +52974,22 @@
         <v>56</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="D57" s="31" t="s">
         <v>148</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F57" s="31" t="s">
         <v>147</v>
       </c>
       <c r="G57" s="31" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H57" s="31" t="s">
         <v>147</v>
@@ -52799,7 +53019,7 @@
         <v>2022</v>
       </c>
       <c r="Q57" s="31" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="58" ht="12.75">
@@ -52807,22 +53027,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D58" s="31" t="s">
         <v>147</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F58" s="31" t="s">
         <v>147</v>
       </c>
       <c r="G58" s="31" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H58" s="31" t="s">
         <v>148</v>
@@ -52852,7 +53072,7 @@
         <v>2025</v>
       </c>
       <c r="Q58" s="31" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="59" ht="12.35">
